--- a/BowlingWeb/FileUploads/Data.xlsx
+++ b/BowlingWeb/FileUploads/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\ASP.Net\BowlingWeb\BowlingWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E59C6C9-9633-40B1-AACD-FADE5D741B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81349286-03A3-44E6-BB25-0F23D2F5FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -466,15 +466,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,7 +478,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -496,28 +518,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -809,7 +809,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -819,19 +819,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -842,10 +842,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="14">
         <v>44069</v>
       </c>
       <c r="C2" s="3">
@@ -865,8 +865,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3">
         <v>141</v>
       </c>
@@ -884,8 +884,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>124</v>
       </c>
@@ -903,10 +903,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="14">
         <v>44078</v>
       </c>
       <c r="C5" s="3">
@@ -926,8 +926,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>117</v>
       </c>
@@ -945,8 +945,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>117</v>
       </c>
@@ -964,8 +964,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>110</v>
       </c>
@@ -983,8 +983,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>130</v>
       </c>
@@ -1002,10 +1002,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="18">
         <v>44084</v>
       </c>
       <c r="C10" s="3">
@@ -1025,8 +1025,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3">
         <v>100</v>
       </c>
@@ -1044,8 +1044,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3">
         <v>114</v>
       </c>
@@ -1063,10 +1063,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14">
         <v>44091</v>
       </c>
       <c r="C13" s="3">
@@ -1086,8 +1086,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>98</v>
       </c>
@@ -1105,8 +1105,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3">
         <v>132</v>
       </c>
@@ -1124,8 +1124,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3">
         <v>116</v>
       </c>
@@ -1143,8 +1143,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3">
         <v>90</v>
       </c>
@@ -1162,10 +1162,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="17">
         <v>5</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="14">
         <v>44097</v>
       </c>
       <c r="C18" s="3">
@@ -1185,8 +1185,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3">
         <v>119</v>
       </c>
@@ -1204,8 +1204,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3">
         <v>120</v>
       </c>
@@ -1223,8 +1223,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3">
         <v>182</v>
       </c>
@@ -1242,8 +1242,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3">
         <v>156</v>
       </c>
@@ -1261,8 +1261,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3">
         <v>110</v>
       </c>
@@ -1280,10 +1280,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="21">
         <v>6</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="14">
         <v>44111</v>
       </c>
       <c r="C24" s="3">
@@ -1303,8 +1303,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3">
         <v>139</v>
       </c>
@@ -1322,8 +1322,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3">
         <v>145</v>
       </c>
@@ -1341,8 +1341,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3">
         <v>170</v>
       </c>
@@ -1360,8 +1360,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3">
         <v>144</v>
       </c>
@@ -1379,10 +1379,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="17">
         <v>7</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="18">
         <v>44115</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1402,8 +1402,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1421,8 +1421,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1440,10 +1440,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="17">
         <v>8</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="14">
         <v>44122</v>
       </c>
       <c r="C32" s="3">
@@ -1463,8 +1463,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3">
         <v>127</v>
       </c>
@@ -1482,8 +1482,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
         <v>174</v>
       </c>
@@ -1501,8 +1501,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <v>106</v>
       </c>
@@ -1520,8 +1520,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <v>128</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <v>148</v>
       </c>
@@ -1558,10 +1558,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="17">
         <v>9</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="14">
         <v>44125</v>
       </c>
       <c r="C38" s="3">
@@ -1581,8 +1581,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <v>134</v>
       </c>
@@ -1600,8 +1600,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <v>130</v>
       </c>
@@ -1619,8 +1619,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <v>120</v>
       </c>
@@ -1638,8 +1638,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <v>88</v>
       </c>
@@ -1657,10 +1657,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="17">
         <v>10</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="14">
         <v>44132</v>
       </c>
       <c r="C43" s="3">
@@ -1680,8 +1680,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="3">
         <v>125</v>
       </c>
@@ -1699,8 +1699,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="3">
         <v>146</v>
       </c>
@@ -1718,8 +1718,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="3">
         <v>167</v>
       </c>
@@ -1737,8 +1737,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="3">
         <v>178</v>
       </c>
@@ -1756,8 +1756,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="3">
         <v>128</v>
       </c>
@@ -1775,10 +1775,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="17">
         <v>11</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="14">
         <v>44140</v>
       </c>
       <c r="C49" s="3">
@@ -1798,8 +1798,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="3">
         <v>155</v>
       </c>
@@ -1817,8 +1817,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="3">
         <v>139</v>
       </c>
@@ -1836,8 +1836,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="3">
         <v>186</v>
       </c>
@@ -1855,8 +1855,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="3">
         <v>161</v>
       </c>
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="3">
         <v>137</v>
       </c>
@@ -1893,10 +1893,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="17">
         <v>12</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="14">
         <v>44143</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1916,8 +1916,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="3" t="s">
         <v>4</v>
       </c>
@@ -1935,8 +1935,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1954,8 +1954,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
@@ -1973,8 +1973,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
@@ -1992,10 +1992,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="17">
         <v>13</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="14">
         <v>44147</v>
       </c>
       <c r="C60" s="3">
@@ -2015,8 +2015,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="3">
         <v>120</v>
       </c>
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="3">
         <v>138</v>
       </c>
@@ -2053,8 +2053,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="3">
         <v>146</v>
       </c>
@@ -2072,8 +2072,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="3">
         <v>106</v>
       </c>
@@ -2091,10 +2091,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="17">
         <v>14</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="14">
         <v>44154</v>
       </c>
       <c r="C65" s="3">
@@ -2114,8 +2114,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="3">
         <v>137</v>
       </c>
@@ -2133,8 +2133,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="3">
         <v>148</v>
       </c>
@@ -2152,8 +2152,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="3">
         <v>152</v>
       </c>
@@ -2171,8 +2171,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="3">
         <v>152</v>
       </c>
@@ -2190,10 +2190,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="17">
         <v>15</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="14">
         <v>44154</v>
       </c>
       <c r="C70" s="3">
@@ -2213,8 +2213,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="3">
         <v>138</v>
       </c>
@@ -2232,8 +2232,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="3">
         <v>124</v>
       </c>
@@ -2251,8 +2251,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="3">
         <v>124</v>
       </c>
@@ -2270,8 +2270,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="3">
         <v>142</v>
       </c>
@@ -2289,10 +2289,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+      <c r="A75" s="17">
         <v>16</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="14">
         <v>44167</v>
       </c>
       <c r="C75" s="3">
@@ -2312,8 +2312,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="3">
         <v>117</v>
       </c>
@@ -2331,8 +2331,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="3">
         <v>140</v>
       </c>
@@ -2350,8 +2350,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="3">
         <v>147</v>
       </c>
@@ -2369,8 +2369,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="3">
         <v>132</v>
       </c>
@@ -2388,8 +2388,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="3">
         <v>146</v>
       </c>
@@ -2407,10 +2407,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+      <c r="A81" s="17">
         <v>17</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="14">
         <v>44168</v>
       </c>
       <c r="C81" s="3">
@@ -2430,8 +2430,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="3">
         <v>119</v>
       </c>
@@ -2449,8 +2449,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="3">
         <v>170</v>
       </c>
@@ -2468,8 +2468,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="3">
         <v>139</v>
       </c>
@@ -2487,8 +2487,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="3">
         <v>136</v>
       </c>
@@ -2506,10 +2506,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+      <c r="A86" s="17">
         <v>18</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="14">
         <v>44175</v>
       </c>
       <c r="C86" s="3">
@@ -2529,8 +2529,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="3">
         <v>109</v>
       </c>
@@ -2548,8 +2548,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="3">
         <v>125</v>
       </c>
@@ -2567,8 +2567,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="3">
         <v>109</v>
       </c>
@@ -2586,8 +2586,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="3">
         <v>142</v>
       </c>
@@ -2605,10 +2605,10 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="19">
+      <c r="A91" s="20">
         <v>19</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="14">
         <v>44180</v>
       </c>
       <c r="C91" s="3">
@@ -2628,8 +2628,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="7"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="3">
         <v>102</v>
       </c>
@@ -2647,8 +2647,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="3">
         <v>194</v>
       </c>
@@ -2666,8 +2666,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="3">
         <v>108</v>
       </c>
@@ -2685,8 +2685,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="7"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="3">
         <v>111</v>
       </c>
@@ -2704,8 +2704,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="7"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="3">
         <v>105</v>
       </c>
@@ -2723,10 +2723,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
+      <c r="A97" s="17">
         <v>20</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="18">
         <v>44189</v>
       </c>
       <c r="C97" s="3">
@@ -2746,8 +2746,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="3">
         <v>111</v>
       </c>
@@ -2765,8 +2765,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="3">
         <v>100</v>
       </c>
@@ -2784,10 +2784,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
+      <c r="A100" s="17">
         <v>21</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="14">
         <v>44195</v>
       </c>
       <c r="C100" s="3">
@@ -2807,8 +2807,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="7"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="3">
         <v>132</v>
       </c>
@@ -2826,8 +2826,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="7"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="3">
         <v>99</v>
       </c>
@@ -2845,8 +2845,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="7"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="3">
         <v>95</v>
       </c>
@@ -2864,8 +2864,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="7"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="3">
         <v>107</v>
       </c>
@@ -2883,10 +2883,10 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
+      <c r="A105" s="17">
         <v>22</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="14">
         <v>44196</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -2906,8 +2906,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="3" t="s">
         <v>4</v>
       </c>
@@ -2925,8 +2925,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="3" t="s">
         <v>4</v>
       </c>
@@ -2944,8 +2944,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="7"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="3" t="s">
         <v>4</v>
       </c>
@@ -2963,8 +2963,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="7"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="3" t="s">
         <v>4</v>
       </c>
@@ -2982,8 +2982,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="3" t="s">
         <v>4</v>
       </c>
@@ -3001,10 +3001,10 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+      <c r="A111" s="17">
         <v>23</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="14">
         <v>44202</v>
       </c>
       <c r="C111" s="3">
@@ -3024,8 +3024,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="7"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="3">
         <v>143</v>
       </c>
@@ -3043,8 +3043,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="7"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="3">
         <v>111</v>
       </c>
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="7"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="3">
         <v>104</v>
       </c>
@@ -3081,8 +3081,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="7"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="3">
         <v>127</v>
       </c>
@@ -3100,10 +3100,10 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
+      <c r="A116" s="17">
         <v>24</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="14">
         <v>44206</v>
       </c>
       <c r="C116" s="3">
@@ -3123,8 +3123,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="7"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="3">
         <v>130</v>
       </c>
@@ -3142,8 +3142,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="7"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="3">
         <v>145</v>
       </c>
@@ -3161,8 +3161,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="7"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="3">
         <v>140</v>
       </c>
@@ -3180,8 +3180,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="3">
         <v>96</v>
       </c>
@@ -3199,8 +3199,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="7"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="3">
         <v>145</v>
       </c>
@@ -3218,8 +3218,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="7"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="3">
         <v>103</v>
       </c>
@@ -3237,10 +3237,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
+      <c r="A123" s="17">
         <v>25</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="14">
         <v>44209</v>
       </c>
       <c r="C123" s="3">
@@ -3260,8 +3260,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="7"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="3">
         <v>124</v>
       </c>
@@ -3279,8 +3279,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="7"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="3">
         <v>121</v>
       </c>
@@ -3298,8 +3298,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="7"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="3">
         <v>95</v>
       </c>
@@ -3317,8 +3317,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="7"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="3">
         <v>113</v>
       </c>
@@ -3336,10 +3336,10 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
+      <c r="A128" s="17">
         <v>26</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="14">
         <v>44223</v>
       </c>
       <c r="C128" s="3">
@@ -3359,8 +3359,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="7"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="3">
         <v>124</v>
       </c>
@@ -3378,8 +3378,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="7"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="3">
         <v>142</v>
       </c>
@@ -3397,8 +3397,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="7"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="3">
         <v>142</v>
       </c>
@@ -3416,8 +3416,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="7"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="3">
         <v>102</v>
       </c>
@@ -3435,10 +3435,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="14">
+      <c r="A133" s="17">
         <v>27</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="14">
         <v>44230</v>
       </c>
       <c r="C133" s="3">
@@ -3458,8 +3458,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="7"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="3">
         <v>132</v>
       </c>
@@ -3477,8 +3477,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="7"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="3">
         <v>110</v>
       </c>
@@ -3496,8 +3496,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
-      <c r="B136" s="7"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="3">
         <v>118</v>
       </c>
@@ -3515,8 +3515,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="7"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="3">
         <v>141</v>
       </c>
@@ -3534,10 +3534,10 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="14">
         <v>44246</v>
       </c>
       <c r="C138" s="3">
@@ -3557,8 +3557,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
-      <c r="B139" s="7"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="3">
         <v>125</v>
       </c>
@@ -3576,10 +3576,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="14">
         <v>44246</v>
       </c>
       <c r="C140" s="3">
@@ -3599,8 +3599,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="7"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="3">
         <v>134</v>
       </c>
@@ -3618,8 +3618,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
-      <c r="B142" s="7"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="3">
         <v>136</v>
       </c>
@@ -3637,8 +3637,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-      <c r="B143" s="7"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="3">
         <v>129</v>
       </c>
@@ -3656,8 +3656,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="7"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="3">
         <v>145</v>
       </c>
@@ -3675,11 +3675,11 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="14">
+      <c r="A145" s="17">
         <v>29</v>
       </c>
-      <c r="B145" s="7">
-        <v>43895</v>
+      <c r="B145" s="14">
+        <v>44260</v>
       </c>
       <c r="C145" s="3">
         <v>112</v>
@@ -3698,8 +3698,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="7"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="3">
         <v>157</v>
       </c>
@@ -3717,8 +3717,8 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
-      <c r="B147" s="7"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="3">
         <v>155</v>
       </c>
@@ -3736,8 +3736,8 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
-      <c r="B148" s="7"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="3">
         <v>138</v>
       </c>
@@ -3755,8 +3755,8 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="14"/>
-      <c r="B149" s="7"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="14"/>
       <c r="C149" s="3">
         <v>134</v>
       </c>
@@ -3774,8 +3774,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
-      <c r="B150" s="7"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="3">
         <v>85</v>
       </c>
@@ -3793,11 +3793,11 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="14">
+      <c r="A151" s="17">
         <v>30</v>
       </c>
-      <c r="B151" s="7">
-        <v>43902</v>
+      <c r="B151" s="14">
+        <v>44267</v>
       </c>
       <c r="C151" s="3">
         <v>157</v>
@@ -3816,8 +3816,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
-      <c r="B152" s="7"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="3">
         <v>108</v>
       </c>
@@ -3835,8 +3835,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
-      <c r="B153" s="7"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="3">
         <v>129</v>
       </c>
@@ -3854,8 +3854,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="7"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="3">
         <v>93</v>
       </c>
@@ -3873,8 +3873,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="7"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="3">
         <v>104</v>
       </c>
@@ -3892,8 +3892,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
-      <c r="B156" s="7"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="3">
         <v>110</v>
       </c>
@@ -3911,10 +3911,10 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
+      <c r="A157" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="14">
         <v>44272</v>
       </c>
       <c r="C157" s="3">
@@ -3934,8 +3934,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
-      <c r="B158" s="7"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="3">
         <v>110</v>
       </c>
@@ -3953,8 +3953,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
-      <c r="B159" s="7"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="3">
         <v>136</v>
       </c>
@@ -3972,8 +3972,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
-      <c r="B160" s="7"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="3">
         <v>105</v>
       </c>
@@ -3991,8 +3991,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
-      <c r="B161" s="7"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="3">
         <v>126</v>
       </c>
@@ -4010,10 +4010,10 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="20" t="s">
+      <c r="A162" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="14">
         <v>44278</v>
       </c>
       <c r="C162" s="3">
@@ -4033,8 +4033,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
-      <c r="B163" s="7"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="3">
         <v>131</v>
       </c>
@@ -4052,8 +4052,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="7"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="3">
         <v>135</v>
       </c>
@@ -4071,8 +4071,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
-      <c r="B165" s="7"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="3">
         <v>122</v>
       </c>
@@ -4090,8 +4090,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="7"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
       <c r="C166" s="3">
         <v>114</v>
       </c>
@@ -4109,10 +4109,10 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="14">
         <v>44294</v>
       </c>
       <c r="C167" s="3">
@@ -4132,8 +4132,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
-      <c r="B168" s="7"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="3">
         <v>108</v>
       </c>
@@ -4151,8 +4151,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
-      <c r="B169" s="7"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="3">
         <v>99</v>
       </c>
@@ -4170,8 +4170,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
-      <c r="B170" s="7"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="14"/>
       <c r="C170" s="3">
         <v>105</v>
       </c>
@@ -4189,8 +4189,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
-      <c r="B171" s="7"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="3">
         <v>121</v>
       </c>
@@ -4208,10 +4208,10 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="14">
         <v>44300</v>
       </c>
       <c r="C172" s="3">
@@ -4231,8 +4231,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
-      <c r="B173" s="7"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="3">
         <v>133</v>
       </c>
@@ -4250,8 +4250,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
-      <c r="B174" s="7"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="14"/>
       <c r="C174" s="3">
         <v>131</v>
       </c>
@@ -4269,8 +4269,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
-      <c r="B175" s="7"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="14"/>
       <c r="C175" s="3">
         <v>96</v>
       </c>
@@ -4288,8 +4288,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
-      <c r="B176" s="7"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="3">
         <v>103</v>
       </c>
@@ -4307,10 +4307,10 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="14">
         <v>44307</v>
       </c>
       <c r="C177" s="3">
@@ -4330,8 +4330,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
-      <c r="B178" s="7"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="14"/>
       <c r="C178" s="3">
         <v>107</v>
       </c>
@@ -4349,8 +4349,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
-      <c r="B179" s="7"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="14"/>
       <c r="C179" s="3">
         <v>120</v>
       </c>
@@ -4368,8 +4368,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
-      <c r="B180" s="7"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="14"/>
       <c r="C180" s="3">
         <v>123</v>
       </c>
@@ -4387,8 +4387,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
-      <c r="B181" s="7"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="14"/>
       <c r="C181" s="3">
         <v>97</v>
       </c>
@@ -4406,8 +4406,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
-      <c r="B182" s="7"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="14"/>
       <c r="C182" s="3">
         <v>134</v>
       </c>
@@ -4425,10 +4425,10 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="20" t="s">
+      <c r="A183" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183" s="14">
         <v>44315</v>
       </c>
       <c r="C183" s="3">
@@ -4448,8 +4448,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
-      <c r="B184" s="7"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="14"/>
       <c r="C184" s="3">
         <v>91</v>
       </c>
@@ -4467,8 +4467,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
-      <c r="B185" s="7"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="14"/>
       <c r="C185" s="3">
         <v>82</v>
       </c>
@@ -4486,8 +4486,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="20"/>
-      <c r="B186" s="7"/>
+      <c r="A186" s="13"/>
+      <c r="B186" s="14"/>
       <c r="C186" s="3">
         <v>82</v>
       </c>
@@ -4505,8 +4505,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
-      <c r="B187" s="7"/>
+      <c r="A187" s="13"/>
+      <c r="B187" s="14"/>
       <c r="C187" s="3">
         <v>114</v>
       </c>
@@ -4524,10 +4524,10 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="20" t="s">
+      <c r="A188" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B188" s="14">
         <v>44322</v>
       </c>
       <c r="C188" s="3">
@@ -4547,8 +4547,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
-      <c r="B189" s="7"/>
+      <c r="A189" s="13"/>
+      <c r="B189" s="14"/>
       <c r="C189" s="3">
         <v>182</v>
       </c>
@@ -4566,8 +4566,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="20"/>
-      <c r="B190" s="7"/>
+      <c r="A190" s="13"/>
+      <c r="B190" s="14"/>
       <c r="C190" s="3">
         <v>142</v>
       </c>
@@ -4585,8 +4585,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="20"/>
-      <c r="B191" s="7"/>
+      <c r="A191" s="13"/>
+      <c r="B191" s="14"/>
       <c r="C191" s="3">
         <v>158</v>
       </c>
@@ -4604,8 +4604,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
-      <c r="B192" s="7"/>
+      <c r="A192" s="13"/>
+      <c r="B192" s="14"/>
       <c r="C192" s="3">
         <v>155</v>
       </c>
@@ -4623,10 +4623,10 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B193" s="14">
         <v>44426</v>
       </c>
       <c r="C193" s="3">
@@ -4646,8 +4646,8 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="21"/>
-      <c r="B194" s="7"/>
+      <c r="A194" s="16"/>
+      <c r="B194" s="14"/>
       <c r="C194" s="3">
         <v>146</v>
       </c>
@@ -4665,8 +4665,8 @@
       </c>
     </row>
     <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="21"/>
-      <c r="B195" s="7"/>
+      <c r="A195" s="16"/>
+      <c r="B195" s="14"/>
       <c r="C195" s="3">
         <v>123</v>
       </c>
@@ -4684,8 +4684,8 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="21"/>
-      <c r="B196" s="7"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="14"/>
       <c r="C196" s="3">
         <v>111</v>
       </c>
@@ -4703,8 +4703,8 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="21"/>
-      <c r="B197" s="7"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="14"/>
       <c r="C197" s="3">
         <v>97</v>
       </c>
@@ -4722,10 +4722,10 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B198" s="7">
+      <c r="B198" s="14">
         <v>44441</v>
       </c>
       <c r="C198" s="3">
@@ -4745,8 +4745,8 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
-      <c r="B199" s="7"/>
+      <c r="A199" s="13"/>
+      <c r="B199" s="14"/>
       <c r="C199" s="3">
         <v>79</v>
       </c>
@@ -4764,8 +4764,8 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
-      <c r="B200" s="7"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="14"/>
       <c r="C200" s="3">
         <v>103</v>
       </c>
@@ -4783,8 +4783,8 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
-      <c r="B201" s="7"/>
+      <c r="A201" s="13"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="3">
         <v>113</v>
       </c>
@@ -4802,8 +4802,8 @@
       </c>
     </row>
     <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
-      <c r="B202" s="7"/>
+      <c r="A202" s="13"/>
+      <c r="B202" s="14"/>
       <c r="C202" s="3">
         <v>111</v>
       </c>
@@ -4821,10 +4821,10 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="22" t="s">
+      <c r="A203" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B203" s="14">
         <v>44448</v>
       </c>
       <c r="C203" s="3">
@@ -4844,8 +4844,8 @@
       </c>
     </row>
     <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
-      <c r="B204" s="7"/>
+      <c r="A204" s="13"/>
+      <c r="B204" s="14"/>
       <c r="C204" s="3">
         <v>141</v>
       </c>
@@ -4863,8 +4863,8 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
-      <c r="B205" s="7"/>
+      <c r="A205" s="13"/>
+      <c r="B205" s="14"/>
       <c r="C205" s="3">
         <v>100</v>
       </c>
@@ -4882,8 +4882,8 @@
       </c>
     </row>
     <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
-      <c r="B206" s="7"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="14"/>
       <c r="C206" s="3">
         <v>129</v>
       </c>
@@ -4901,8 +4901,8 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
-      <c r="B207" s="7"/>
+      <c r="A207" s="13"/>
+      <c r="B207" s="14"/>
       <c r="C207" s="3">
         <v>135</v>
       </c>
@@ -4920,8 +4920,8 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
-      <c r="B208" s="7"/>
+      <c r="A208" s="13"/>
+      <c r="B208" s="14"/>
       <c r="C208" s="3">
         <v>136</v>
       </c>
@@ -4939,10 +4939,10 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="22" t="s">
+      <c r="A209" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B209" s="7">
+      <c r="B209" s="14">
         <v>44468</v>
       </c>
       <c r="C209" s="3">
@@ -4962,8 +4962,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
-      <c r="B210" s="7"/>
+      <c r="A210" s="13"/>
+      <c r="B210" s="14"/>
       <c r="C210" s="3">
         <v>87</v>
       </c>
@@ -4981,8 +4981,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
-      <c r="B211" s="7"/>
+      <c r="A211" s="13"/>
+      <c r="B211" s="14"/>
       <c r="C211" s="3">
         <v>124</v>
       </c>
@@ -5000,8 +5000,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
-      <c r="B212" s="7"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="14"/>
       <c r="C212" s="3">
         <v>110</v>
       </c>
@@ -5019,8 +5019,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
-      <c r="B213" s="7"/>
+      <c r="A213" s="13"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="3">
         <v>107</v>
       </c>
@@ -5038,10 +5038,10 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="22" t="s">
+      <c r="A214" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B214" s="7">
+      <c r="B214" s="14">
         <v>44477</v>
       </c>
       <c r="C214" s="3">
@@ -5061,8 +5061,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
-      <c r="B215" s="7"/>
+      <c r="A215" s="13"/>
+      <c r="B215" s="14"/>
       <c r="C215" s="3">
         <v>110</v>
       </c>
@@ -5080,8 +5080,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
-      <c r="B216" s="7"/>
+      <c r="A216" s="13"/>
+      <c r="B216" s="14"/>
       <c r="C216" s="3">
         <v>93</v>
       </c>
@@ -5099,8 +5099,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
-      <c r="B217" s="7"/>
+      <c r="A217" s="13"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="3">
         <v>155</v>
       </c>
@@ -5118,8 +5118,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
-      <c r="B218" s="7"/>
+      <c r="A218" s="13"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="3">
         <v>123</v>
       </c>
@@ -5137,10 +5137,10 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="22" t="s">
+      <c r="A219" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B219" s="7">
+      <c r="B219" s="14">
         <v>44484</v>
       </c>
       <c r="C219" s="3">
@@ -5160,8 +5160,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
-      <c r="B220" s="7"/>
+      <c r="A220" s="13"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="3">
         <v>154</v>
       </c>
@@ -5179,8 +5179,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
-      <c r="B221" s="7"/>
+      <c r="A221" s="13"/>
+      <c r="B221" s="14"/>
       <c r="C221" s="3">
         <v>126</v>
       </c>
@@ -5198,8 +5198,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
-      <c r="B222" s="7"/>
+      <c r="A222" s="13"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="3">
         <v>100</v>
       </c>
@@ -5217,8 +5217,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
-      <c r="B223" s="7"/>
+      <c r="A223" s="13"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="3">
         <v>138</v>
       </c>
@@ -5236,10 +5236,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="22" t="s">
+      <c r="A224" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B224" s="7">
+      <c r="B224" s="14">
         <v>44490</v>
       </c>
       <c r="C224" s="3">
@@ -5259,8 +5259,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
-      <c r="B225" s="7"/>
+      <c r="A225" s="13"/>
+      <c r="B225" s="14"/>
       <c r="C225" s="3">
         <v>132</v>
       </c>
@@ -5278,8 +5278,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
-      <c r="B226" s="7"/>
+      <c r="A226" s="13"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="3">
         <v>122</v>
       </c>
@@ -5297,8 +5297,8 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
-      <c r="B227" s="7"/>
+      <c r="A227" s="13"/>
+      <c r="B227" s="14"/>
       <c r="C227" s="3">
         <v>108</v>
       </c>
@@ -5316,8 +5316,8 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
-      <c r="B228" s="7"/>
+      <c r="A228" s="13"/>
+      <c r="B228" s="14"/>
       <c r="C228" s="3">
         <v>141</v>
       </c>
@@ -5335,10 +5335,10 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="22" t="s">
+      <c r="A229" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B229" s="7">
+      <c r="B229" s="14">
         <v>44496</v>
       </c>
       <c r="C229" s="3">
@@ -5358,8 +5358,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
-      <c r="B230" s="7"/>
+      <c r="A230" s="13"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="3">
         <v>107</v>
       </c>
@@ -5377,8 +5377,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
-      <c r="B231" s="7"/>
+      <c r="A231" s="13"/>
+      <c r="B231" s="14"/>
       <c r="C231" s="3">
         <v>129</v>
       </c>
@@ -5396,8 +5396,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
-      <c r="B232" s="7"/>
+      <c r="A232" s="13"/>
+      <c r="B232" s="14"/>
       <c r="C232" s="3">
         <v>135</v>
       </c>
@@ -5415,8 +5415,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
-      <c r="B233" s="7"/>
+      <c r="A233" s="13"/>
+      <c r="B233" s="14"/>
       <c r="C233" s="3">
         <v>127</v>
       </c>
@@ -5434,10 +5434,10 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="22" t="s">
+      <c r="A234" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B234" s="7">
+      <c r="B234" s="14">
         <v>44505</v>
       </c>
       <c r="C234" s="3">
@@ -5457,8 +5457,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
-      <c r="B235" s="7"/>
+      <c r="A235" s="13"/>
+      <c r="B235" s="14"/>
       <c r="C235" s="3">
         <v>137</v>
       </c>
@@ -5476,8 +5476,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
-      <c r="B236" s="7"/>
+      <c r="A236" s="13"/>
+      <c r="B236" s="14"/>
       <c r="C236" s="3">
         <v>102</v>
       </c>
@@ -5495,8 +5495,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
-      <c r="B237" s="7"/>
+      <c r="A237" s="13"/>
+      <c r="B237" s="14"/>
       <c r="C237" s="3">
         <v>111</v>
       </c>
@@ -5514,8 +5514,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
-      <c r="B238" s="7"/>
+      <c r="A238" s="13"/>
+      <c r="B238" s="14"/>
       <c r="C238" s="3">
         <v>130</v>
       </c>
@@ -5533,10 +5533,10 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="22" t="s">
+      <c r="A239" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B239" s="7">
+      <c r="B239" s="14">
         <v>44511</v>
       </c>
       <c r="C239" s="3">
@@ -5556,8 +5556,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
-      <c r="B240" s="7"/>
+      <c r="A240" s="13"/>
+      <c r="B240" s="14"/>
       <c r="C240" s="3">
         <v>135</v>
       </c>
@@ -5575,8 +5575,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
-      <c r="B241" s="7"/>
+      <c r="A241" s="13"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="3">
         <v>123</v>
       </c>
@@ -5594,8 +5594,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
-      <c r="B242" s="7"/>
+      <c r="A242" s="13"/>
+      <c r="B242" s="14"/>
       <c r="C242" s="3">
         <v>131</v>
       </c>
@@ -5613,8 +5613,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
-      <c r="B243" s="7"/>
+      <c r="A243" s="13"/>
+      <c r="B243" s="14"/>
       <c r="C243" s="3">
         <v>110</v>
       </c>
@@ -5632,10 +5632,10 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="22" t="s">
+      <c r="A244" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B244" s="7">
+      <c r="B244" s="14">
         <v>44533</v>
       </c>
       <c r="C244" s="3">
@@ -5655,8 +5655,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
-      <c r="B245" s="7"/>
+      <c r="A245" s="13"/>
+      <c r="B245" s="14"/>
       <c r="C245" s="3">
         <v>169</v>
       </c>
@@ -5674,8 +5674,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
-      <c r="B246" s="7"/>
+      <c r="A246" s="13"/>
+      <c r="B246" s="14"/>
       <c r="C246" s="3">
         <v>98</v>
       </c>
@@ -5693,8 +5693,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
-      <c r="B247" s="7"/>
+      <c r="A247" s="13"/>
+      <c r="B247" s="14"/>
       <c r="C247" s="3">
         <v>132</v>
       </c>
@@ -5712,8 +5712,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A248" s="20"/>
-      <c r="B248" s="7"/>
+      <c r="A248" s="13"/>
+      <c r="B248" s="14"/>
       <c r="C248" s="3">
         <v>133</v>
       </c>
@@ -5731,8 +5731,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="20"/>
-      <c r="B249" s="7"/>
+      <c r="A249" s="13"/>
+      <c r="B249" s="14"/>
       <c r="C249" s="3">
         <v>90</v>
       </c>
@@ -5750,10 +5750,10 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A250" s="22" t="s">
+      <c r="A250" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B250" s="7">
+      <c r="B250" s="14">
         <v>44540</v>
       </c>
       <c r="C250" s="3">
@@ -5773,8 +5773,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="20"/>
-      <c r="B251" s="7"/>
+      <c r="A251" s="13"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="3">
         <v>121</v>
       </c>
@@ -5792,8 +5792,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="20"/>
-      <c r="B252" s="7"/>
+      <c r="A252" s="13"/>
+      <c r="B252" s="14"/>
       <c r="C252" s="3">
         <v>109</v>
       </c>
@@ -5811,8 +5811,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="20"/>
-      <c r="B253" s="7"/>
+      <c r="A253" s="13"/>
+      <c r="B253" s="14"/>
       <c r="C253" s="3">
         <v>127</v>
       </c>
@@ -5830,8 +5830,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
-      <c r="B254" s="7"/>
+      <c r="A254" s="13"/>
+      <c r="B254" s="14"/>
       <c r="C254" s="3">
         <v>118</v>
       </c>
@@ -5849,10 +5849,10 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="22" t="s">
+      <c r="A255" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B255" s="7">
+      <c r="B255" s="14">
         <v>44554</v>
       </c>
       <c r="C255" s="3">
@@ -5872,8 +5872,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
-      <c r="B256" s="7"/>
+      <c r="A256" s="13"/>
+      <c r="B256" s="14"/>
       <c r="C256" s="3">
         <v>96</v>
       </c>
@@ -5891,8 +5891,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
-      <c r="B257" s="7"/>
+      <c r="A257" s="13"/>
+      <c r="B257" s="14"/>
       <c r="C257" s="3">
         <v>106</v>
       </c>
@@ -5910,8 +5910,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
-      <c r="B258" s="7"/>
+      <c r="A258" s="13"/>
+      <c r="B258" s="14"/>
       <c r="C258" s="3">
         <v>93</v>
       </c>
@@ -5929,8 +5929,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A259" s="20"/>
-      <c r="B259" s="7"/>
+      <c r="A259" s="13"/>
+      <c r="B259" s="14"/>
       <c r="C259" s="3">
         <v>139</v>
       </c>
@@ -5948,8 +5948,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="20"/>
-      <c r="B260" s="7"/>
+      <c r="A260" s="13"/>
+      <c r="B260" s="14"/>
       <c r="C260" s="3">
         <v>126</v>
       </c>
@@ -5967,10 +5967,10 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="22" t="s">
+      <c r="A261" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B261" s="7">
+      <c r="B261" s="14">
         <v>44568</v>
       </c>
       <c r="C261" s="3">
@@ -5990,8 +5990,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="20"/>
-      <c r="B262" s="7"/>
+      <c r="A262" s="13"/>
+      <c r="B262" s="14"/>
       <c r="C262" s="3">
         <v>112</v>
       </c>
@@ -6009,8 +6009,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="20"/>
-      <c r="B263" s="7"/>
+      <c r="A263" s="13"/>
+      <c r="B263" s="14"/>
       <c r="C263" s="3">
         <v>107</v>
       </c>
@@ -6028,8 +6028,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="20"/>
-      <c r="B264" s="7"/>
+      <c r="A264" s="13"/>
+      <c r="B264" s="14"/>
       <c r="C264" s="3">
         <v>142</v>
       </c>
@@ -6047,8 +6047,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="20"/>
-      <c r="B265" s="7"/>
+      <c r="A265" s="13"/>
+      <c r="B265" s="14"/>
       <c r="C265" s="3">
         <v>126</v>
       </c>
@@ -6066,10 +6066,10 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="22" t="s">
+      <c r="A266" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B266" s="7">
+      <c r="B266" s="14">
         <v>44582</v>
       </c>
       <c r="C266" s="3">
@@ -6089,8 +6089,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
-      <c r="B267" s="7"/>
+      <c r="A267" s="13"/>
+      <c r="B267" s="14"/>
       <c r="C267" s="3">
         <v>128</v>
       </c>
@@ -6108,8 +6108,8 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="20"/>
-      <c r="B268" s="7"/>
+      <c r="A268" s="13"/>
+      <c r="B268" s="14"/>
       <c r="C268" s="3">
         <v>146</v>
       </c>
@@ -6127,8 +6127,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="20"/>
-      <c r="B269" s="7"/>
+      <c r="A269" s="13"/>
+      <c r="B269" s="14"/>
       <c r="C269" s="3">
         <v>131</v>
       </c>
@@ -6146,8 +6146,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="20"/>
-      <c r="B270" s="7"/>
+      <c r="A270" s="13"/>
+      <c r="B270" s="14"/>
       <c r="C270" s="3">
         <v>132</v>
       </c>
@@ -6165,10 +6165,10 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="22" t="s">
+      <c r="A271" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B271" s="7">
+      <c r="B271" s="14">
         <v>44589</v>
       </c>
       <c r="C271" s="3">
@@ -6188,8 +6188,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="20"/>
-      <c r="B272" s="7"/>
+      <c r="A272" s="13"/>
+      <c r="B272" s="14"/>
       <c r="C272" s="3">
         <v>125</v>
       </c>
@@ -6207,8 +6207,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
-      <c r="B273" s="7"/>
+      <c r="A273" s="13"/>
+      <c r="B273" s="14"/>
       <c r="C273" s="3">
         <v>100</v>
       </c>
@@ -6226,8 +6226,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="20"/>
-      <c r="B274" s="7"/>
+      <c r="A274" s="13"/>
+      <c r="B274" s="14"/>
       <c r="C274" s="3">
         <v>124</v>
       </c>
@@ -6245,8 +6245,8 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
-      <c r="B275" s="7"/>
+      <c r="A275" s="13"/>
+      <c r="B275" s="14"/>
       <c r="C275" s="3">
         <v>134</v>
       </c>
@@ -6264,10 +6264,10 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A276" s="22" t="s">
+      <c r="A276" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B276" s="7">
+      <c r="B276" s="14">
         <v>44596</v>
       </c>
       <c r="C276" s="3">
@@ -6287,8 +6287,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A277" s="20"/>
-      <c r="B277" s="7"/>
+      <c r="A277" s="13"/>
+      <c r="B277" s="14"/>
       <c r="C277" s="3">
         <v>100</v>
       </c>
@@ -6306,8 +6306,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A278" s="20"/>
-      <c r="B278" s="7"/>
+      <c r="A278" s="13"/>
+      <c r="B278" s="14"/>
       <c r="C278" s="3">
         <v>116</v>
       </c>
@@ -6325,8 +6325,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A279" s="20"/>
-      <c r="B279" s="7"/>
+      <c r="A279" s="13"/>
+      <c r="B279" s="14"/>
       <c r="C279" s="3">
         <v>128</v>
       </c>
@@ -6344,10 +6344,10 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A280" s="22" t="s">
+      <c r="A280" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B280" s="7">
+      <c r="B280" s="14">
         <v>44624</v>
       </c>
       <c r="C280" s="3">
@@ -6367,8 +6367,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="20"/>
-      <c r="B281" s="7"/>
+      <c r="A281" s="13"/>
+      <c r="B281" s="14"/>
       <c r="C281" s="3">
         <v>106</v>
       </c>
@@ -6386,8 +6386,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A282" s="20"/>
-      <c r="B282" s="7"/>
+      <c r="A282" s="13"/>
+      <c r="B282" s="14"/>
       <c r="C282" s="3">
         <v>123</v>
       </c>
@@ -6405,8 +6405,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A283" s="20"/>
-      <c r="B283" s="7"/>
+      <c r="A283" s="13"/>
+      <c r="B283" s="14"/>
       <c r="C283" s="3">
         <v>130</v>
       </c>
@@ -6424,10 +6424,10 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A284" s="23" t="s">
+      <c r="A284" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B284" s="7">
+      <c r="B284" s="14">
         <v>44633</v>
       </c>
       <c r="C284" s="3">
@@ -6447,8 +6447,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A285" s="21"/>
-      <c r="B285" s="7"/>
+      <c r="A285" s="16"/>
+      <c r="B285" s="14"/>
       <c r="C285" s="3">
         <v>110</v>
       </c>
@@ -6466,8 +6466,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A286" s="21"/>
-      <c r="B286" s="7"/>
+      <c r="A286" s="16"/>
+      <c r="B286" s="14"/>
       <c r="C286" s="3">
         <v>125</v>
       </c>
@@ -6485,8 +6485,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="21"/>
-      <c r="B287" s="7"/>
+      <c r="A287" s="16"/>
+      <c r="B287" s="14"/>
       <c r="C287" s="3">
         <v>139</v>
       </c>
@@ -6504,8 +6504,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A288" s="21"/>
-      <c r="B288" s="7"/>
+      <c r="A288" s="16"/>
+      <c r="B288" s="14"/>
       <c r="C288" s="3">
         <v>130</v>
       </c>
@@ -6523,8 +6523,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A289" s="21"/>
-      <c r="B289" s="7"/>
+      <c r="A289" s="16"/>
+      <c r="B289" s="14"/>
       <c r="C289" s="3">
         <v>103</v>
       </c>
@@ -6542,8 +6542,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A290" s="21"/>
-      <c r="B290" s="7"/>
+      <c r="A290" s="16"/>
+      <c r="B290" s="14"/>
       <c r="C290" s="3">
         <v>115</v>
       </c>
@@ -6561,10 +6561,10 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A291" s="22" t="s">
+      <c r="A291" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B291" s="7">
+      <c r="B291" s="14">
         <v>44652</v>
       </c>
       <c r="C291" s="3">
@@ -6584,8 +6584,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A292" s="20"/>
-      <c r="B292" s="7"/>
+      <c r="A292" s="13"/>
+      <c r="B292" s="14"/>
       <c r="C292" s="3">
         <v>87</v>
       </c>
@@ -6603,8 +6603,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A293" s="20"/>
-      <c r="B293" s="7"/>
+      <c r="A293" s="13"/>
+      <c r="B293" s="14"/>
       <c r="C293" s="3">
         <v>90</v>
       </c>
@@ -6622,8 +6622,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A294" s="20"/>
-      <c r="B294" s="7"/>
+      <c r="A294" s="13"/>
+      <c r="B294" s="14"/>
       <c r="C294" s="3">
         <v>146</v>
       </c>
@@ -6641,8 +6641,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A295" s="20"/>
-      <c r="B295" s="7"/>
+      <c r="A295" s="13"/>
+      <c r="B295" s="14"/>
       <c r="C295" s="3">
         <v>157</v>
       </c>
@@ -6660,8 +6660,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A296" s="20"/>
-      <c r="B296" s="7"/>
+      <c r="A296" s="13"/>
+      <c r="B296" s="14"/>
       <c r="C296" s="3">
         <v>120</v>
       </c>
@@ -6679,8 +6679,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A297" s="20"/>
-      <c r="B297" s="7"/>
+      <c r="A297" s="13"/>
+      <c r="B297" s="14"/>
       <c r="C297" s="3">
         <v>110</v>
       </c>
@@ -6698,10 +6698,10 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A298" s="22" t="s">
+      <c r="A298" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B298" s="7">
+      <c r="B298" s="14">
         <v>44661</v>
       </c>
       <c r="C298" s="3">
@@ -6721,8 +6721,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A299" s="20"/>
-      <c r="B299" s="7"/>
+      <c r="A299" s="13"/>
+      <c r="B299" s="14"/>
       <c r="C299" s="3">
         <v>101</v>
       </c>
@@ -6740,8 +6740,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A300" s="20"/>
-      <c r="B300" s="7"/>
+      <c r="A300" s="13"/>
+      <c r="B300" s="14"/>
       <c r="C300" s="3">
         <v>106</v>
       </c>
@@ -6759,8 +6759,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A301" s="20"/>
-      <c r="B301" s="7"/>
+      <c r="A301" s="13"/>
+      <c r="B301" s="14"/>
       <c r="C301" s="3">
         <v>111</v>
       </c>
@@ -6778,8 +6778,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A302" s="20"/>
-      <c r="B302" s="7"/>
+      <c r="A302" s="13"/>
+      <c r="B302" s="14"/>
       <c r="C302" s="3">
         <v>94</v>
       </c>
@@ -6797,10 +6797,10 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A303" s="22" t="s">
+      <c r="A303" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B303" s="7">
+      <c r="B303" s="14">
         <v>44667</v>
       </c>
       <c r="C303" s="3">
@@ -6820,8 +6820,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A304" s="20"/>
-      <c r="B304" s="7"/>
+      <c r="A304" s="13"/>
+      <c r="B304" s="14"/>
       <c r="C304" s="3">
         <v>115</v>
       </c>
@@ -6839,8 +6839,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A305" s="20"/>
-      <c r="B305" s="7"/>
+      <c r="A305" s="13"/>
+      <c r="B305" s="14"/>
       <c r="C305" s="3">
         <v>100</v>
       </c>
@@ -6858,8 +6858,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A306" s="20"/>
-      <c r="B306" s="7"/>
+      <c r="A306" s="13"/>
+      <c r="B306" s="14"/>
       <c r="C306" s="3">
         <v>121</v>
       </c>
@@ -6877,8 +6877,8 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A307" s="20"/>
-      <c r="B307" s="7"/>
+      <c r="A307" s="13"/>
+      <c r="B307" s="14"/>
       <c r="C307" s="3">
         <v>83</v>
       </c>
@@ -6896,8 +6896,8 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A308" s="20"/>
-      <c r="B308" s="7"/>
+      <c r="A308" s="13"/>
+      <c r="B308" s="14"/>
       <c r="C308" s="3">
         <v>102</v>
       </c>
@@ -6915,10 +6915,10 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A309" s="22" t="s">
+      <c r="A309" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B309" s="7">
+      <c r="B309" s="14">
         <v>44673</v>
       </c>
       <c r="C309" s="3">
@@ -6938,8 +6938,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A310" s="20"/>
-      <c r="B310" s="7"/>
+      <c r="A310" s="13"/>
+      <c r="B310" s="14"/>
       <c r="C310" s="3">
         <v>100</v>
       </c>
@@ -6957,8 +6957,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A311" s="20"/>
-      <c r="B311" s="7"/>
+      <c r="A311" s="13"/>
+      <c r="B311" s="14"/>
       <c r="C311" s="3">
         <v>84</v>
       </c>
@@ -6976,8 +6976,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A312" s="20"/>
-      <c r="B312" s="7"/>
+      <c r="A312" s="13"/>
+      <c r="B312" s="14"/>
       <c r="C312" s="3">
         <v>103</v>
       </c>
@@ -6995,8 +6995,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A313" s="20"/>
-      <c r="B313" s="7"/>
+      <c r="A313" s="13"/>
+      <c r="B313" s="14"/>
       <c r="C313" s="3">
         <v>136</v>
       </c>
@@ -7014,8 +7014,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A314" s="20"/>
-      <c r="B314" s="7"/>
+      <c r="A314" s="13"/>
+      <c r="B314" s="14"/>
       <c r="C314" s="3">
         <v>125</v>
       </c>
@@ -7033,8 +7033,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A315" s="20"/>
-      <c r="B315" s="7"/>
+      <c r="A315" s="13"/>
+      <c r="B315" s="14"/>
       <c r="C315" s="3">
         <v>98</v>
       </c>
@@ -7052,10 +7052,10 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A316" s="22" t="s">
+      <c r="A316" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B316" s="7">
+      <c r="B316" s="14">
         <v>44745</v>
       </c>
       <c r="C316" s="3">
@@ -7075,8 +7075,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A317" s="20"/>
-      <c r="B317" s="7"/>
+      <c r="A317" s="13"/>
+      <c r="B317" s="14"/>
       <c r="C317" s="3">
         <v>105</v>
       </c>
@@ -7094,8 +7094,8 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A318" s="20"/>
-      <c r="B318" s="7"/>
+      <c r="A318" s="13"/>
+      <c r="B318" s="14"/>
       <c r="C318" s="3">
         <v>117</v>
       </c>
@@ -7113,8 +7113,8 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A319" s="20"/>
-      <c r="B319" s="7"/>
+      <c r="A319" s="13"/>
+      <c r="B319" s="14"/>
       <c r="C319" s="3">
         <v>117</v>
       </c>
@@ -7132,8 +7132,8 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A320" s="20"/>
-      <c r="B320" s="7"/>
+      <c r="A320" s="13"/>
+      <c r="B320" s="14"/>
       <c r="C320" s="3">
         <v>116</v>
       </c>
@@ -7151,10 +7151,10 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A321" s="22" t="s">
+      <c r="A321" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B321" s="7">
+      <c r="B321" s="14">
         <v>44772</v>
       </c>
       <c r="C321" s="3">
@@ -7174,8 +7174,8 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A322" s="20"/>
-      <c r="B322" s="7"/>
+      <c r="A322" s="13"/>
+      <c r="B322" s="14"/>
       <c r="C322" s="3">
         <v>103</v>
       </c>
@@ -7193,8 +7193,8 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A323" s="20"/>
-      <c r="B323" s="7"/>
+      <c r="A323" s="13"/>
+      <c r="B323" s="14"/>
       <c r="C323" s="3">
         <v>103</v>
       </c>
@@ -7212,8 +7212,8 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A324" s="20"/>
-      <c r="B324" s="7"/>
+      <c r="A324" s="13"/>
+      <c r="B324" s="14"/>
       <c r="C324" s="3">
         <v>103</v>
       </c>
@@ -7231,8 +7231,8 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A325" s="20"/>
-      <c r="B325" s="7"/>
+      <c r="A325" s="13"/>
+      <c r="B325" s="14"/>
       <c r="C325" s="3">
         <v>90</v>
       </c>
@@ -7250,10 +7250,10 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A326" s="22" t="s">
+      <c r="A326" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B326" s="7">
+      <c r="B326" s="14">
         <v>44836</v>
       </c>
       <c r="C326" s="3">
@@ -7273,8 +7273,8 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A327" s="20"/>
-      <c r="B327" s="7"/>
+      <c r="A327" s="13"/>
+      <c r="B327" s="14"/>
       <c r="C327" s="3">
         <v>125</v>
       </c>
@@ -7292,8 +7292,8 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A328" s="20"/>
-      <c r="B328" s="7"/>
+      <c r="A328" s="13"/>
+      <c r="B328" s="14"/>
       <c r="C328" s="3">
         <v>116</v>
       </c>
@@ -7311,8 +7311,8 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A329" s="20"/>
-      <c r="B329" s="7"/>
+      <c r="A329" s="13"/>
+      <c r="B329" s="14"/>
       <c r="C329" s="3">
         <v>98</v>
       </c>
@@ -7330,8 +7330,8 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A330" s="20"/>
-      <c r="B330" s="7"/>
+      <c r="A330" s="13"/>
+      <c r="B330" s="14"/>
       <c r="C330" s="3">
         <v>84</v>
       </c>
@@ -7349,10 +7349,10 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A331" s="22" t="s">
+      <c r="A331" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B331" s="7">
+      <c r="B331" s="14">
         <v>44850</v>
       </c>
       <c r="C331" s="3">
@@ -7372,8 +7372,8 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A332" s="20"/>
-      <c r="B332" s="7"/>
+      <c r="A332" s="13"/>
+      <c r="B332" s="14"/>
       <c r="C332" s="3">
         <v>112</v>
       </c>
@@ -7391,8 +7391,8 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A333" s="20"/>
-      <c r="B333" s="7"/>
+      <c r="A333" s="13"/>
+      <c r="B333" s="14"/>
       <c r="C333" s="3">
         <v>109</v>
       </c>
@@ -7410,8 +7410,8 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A334" s="20"/>
-      <c r="B334" s="7"/>
+      <c r="A334" s="13"/>
+      <c r="B334" s="14"/>
       <c r="C334" s="3">
         <v>82</v>
       </c>
@@ -7429,8 +7429,8 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A335" s="20"/>
-      <c r="B335" s="7"/>
+      <c r="A335" s="13"/>
+      <c r="B335" s="14"/>
       <c r="C335" s="3">
         <v>132</v>
       </c>
@@ -7449,6 +7449,122 @@
     </row>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="B133:B137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="A224:A228"/>
+    <mergeCell ref="B224:B228"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="B203:B208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="A250:A254"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="B261:B265"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="B239:B243"/>
+    <mergeCell ref="A244:A249"/>
+    <mergeCell ref="B244:B249"/>
+    <mergeCell ref="A280:A283"/>
+    <mergeCell ref="B280:B283"/>
+    <mergeCell ref="A284:A290"/>
+    <mergeCell ref="B284:B290"/>
+    <mergeCell ref="A291:A297"/>
+    <mergeCell ref="B291:B297"/>
+    <mergeCell ref="A266:A270"/>
+    <mergeCell ref="B266:B270"/>
+    <mergeCell ref="A271:A275"/>
+    <mergeCell ref="B271:B275"/>
+    <mergeCell ref="A276:A279"/>
+    <mergeCell ref="B276:B279"/>
     <mergeCell ref="A331:A335"/>
     <mergeCell ref="B331:B335"/>
     <mergeCell ref="A316:A320"/>
@@ -7463,122 +7579,6 @@
     <mergeCell ref="B303:B308"/>
     <mergeCell ref="A309:A315"/>
     <mergeCell ref="B309:B315"/>
-    <mergeCell ref="A280:A283"/>
-    <mergeCell ref="B280:B283"/>
-    <mergeCell ref="A284:A290"/>
-    <mergeCell ref="B284:B290"/>
-    <mergeCell ref="A291:A297"/>
-    <mergeCell ref="B291:B297"/>
-    <mergeCell ref="A266:A270"/>
-    <mergeCell ref="B266:B270"/>
-    <mergeCell ref="A271:A275"/>
-    <mergeCell ref="B271:B275"/>
-    <mergeCell ref="A276:A279"/>
-    <mergeCell ref="B276:B279"/>
-    <mergeCell ref="A250:A254"/>
-    <mergeCell ref="B250:B254"/>
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="B255:B260"/>
-    <mergeCell ref="A261:A265"/>
-    <mergeCell ref="B261:B265"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="A239:A243"/>
-    <mergeCell ref="B239:B243"/>
-    <mergeCell ref="A244:A249"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="B219:B223"/>
-    <mergeCell ref="A224:A228"/>
-    <mergeCell ref="B224:B228"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="B203:B208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="A188:A192"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="B183:B187"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BowlingWeb/FileUploads/Data.xlsx
+++ b/BowlingWeb/FileUploads/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\ASP.Net\BowlingWeb\BowlingWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81349286-03A3-44E6-BB25-0F23D2F5FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD38F8A-247D-4440-97DA-47528590CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44730" yWindow="720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="45">
   <si>
     <t>Donald</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>David</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -479,22 +483,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,7 +495,10 @@
     <xf numFmtId="14" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,10 +507,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,13 +802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:G343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B324" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A336" sqref="A336:A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -842,10 +846,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>44069</v>
       </c>
       <c r="C2" s="3">
@@ -865,8 +869,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="3">
         <v>141</v>
       </c>
@@ -884,8 +888,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3">
         <v>124</v>
       </c>
@@ -903,10 +907,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>44078</v>
       </c>
       <c r="C5" s="3">
@@ -926,8 +930,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3">
         <v>117</v>
       </c>
@@ -945,8 +949,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3">
         <v>117</v>
       </c>
@@ -964,8 +968,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3">
         <v>110</v>
       </c>
@@ -983,8 +987,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3">
         <v>130</v>
       </c>
@@ -1002,10 +1006,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <v>44084</v>
       </c>
       <c r="C10" s="3">
@@ -1025,8 +1029,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3">
         <v>100</v>
       </c>
@@ -1044,8 +1048,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3">
         <v>114</v>
       </c>
@@ -1063,10 +1067,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>4</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="16">
+        <v>4</v>
+      </c>
+      <c r="B13" s="13">
         <v>44091</v>
       </c>
       <c r="C13" s="3">
@@ -1086,8 +1090,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3">
         <v>98</v>
       </c>
@@ -1105,8 +1109,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3">
         <v>132</v>
       </c>
@@ -1124,8 +1128,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3">
         <v>116</v>
       </c>
@@ -1143,8 +1147,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3">
         <v>90</v>
       </c>
@@ -1162,10 +1166,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="12">
         <v>5</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>44097</v>
       </c>
       <c r="C18" s="3">
@@ -1185,8 +1189,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3">
         <v>119</v>
       </c>
@@ -1204,8 +1208,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3">
         <v>120</v>
       </c>
@@ -1223,8 +1227,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3">
         <v>182</v>
       </c>
@@ -1242,8 +1246,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3">
         <v>156</v>
       </c>
@@ -1261,8 +1265,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3">
         <v>110</v>
       </c>
@@ -1280,10 +1284,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>6</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>44111</v>
       </c>
       <c r="C24" s="3">
@@ -1303,8 +1307,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3">
         <v>139</v>
       </c>
@@ -1322,8 +1326,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3">
         <v>145</v>
       </c>
@@ -1341,8 +1345,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3">
         <v>170</v>
       </c>
@@ -1360,8 +1364,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3">
         <v>144</v>
       </c>
@@ -1379,10 +1383,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="12">
         <v>7</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="14">
         <v>44115</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1402,8 +1406,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1421,8 +1425,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1440,10 +1444,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="12">
         <v>8</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>44122</v>
       </c>
       <c r="C32" s="3">
@@ -1463,8 +1467,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="3">
         <v>127</v>
       </c>
@@ -1482,8 +1486,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="3">
         <v>174</v>
       </c>
@@ -1501,8 +1505,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3">
         <v>106</v>
       </c>
@@ -1520,8 +1524,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3">
         <v>128</v>
       </c>
@@ -1539,8 +1543,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="3">
         <v>148</v>
       </c>
@@ -1558,10 +1562,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="12">
         <v>9</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>44125</v>
       </c>
       <c r="C38" s="3">
@@ -1581,8 +1585,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="3">
         <v>134</v>
       </c>
@@ -1600,8 +1604,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="3">
         <v>130</v>
       </c>
@@ -1619,8 +1623,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="3">
         <v>120</v>
       </c>
@@ -1638,8 +1642,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="3">
         <v>88</v>
       </c>
@@ -1657,10 +1661,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="12">
         <v>10</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>44132</v>
       </c>
       <c r="C43" s="3">
@@ -1680,8 +1684,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="3">
         <v>125</v>
       </c>
@@ -1699,8 +1703,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="3">
         <v>146</v>
       </c>
@@ -1718,8 +1722,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="3">
         <v>167</v>
       </c>
@@ -1737,8 +1741,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="3">
         <v>178</v>
       </c>
@@ -1756,8 +1760,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3">
         <v>128</v>
       </c>
@@ -1775,10 +1779,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="A49" s="12">
         <v>11</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>44140</v>
       </c>
       <c r="C49" s="3">
@@ -1798,8 +1802,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="3">
         <v>155</v>
       </c>
@@ -1817,8 +1821,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="3">
         <v>139</v>
       </c>
@@ -1836,8 +1840,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="3">
         <v>186</v>
       </c>
@@ -1855,8 +1859,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="3">
         <v>161</v>
       </c>
@@ -1874,8 +1878,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="3">
         <v>137</v>
       </c>
@@ -1893,10 +1897,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="A55" s="12">
         <v>12</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>44143</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1916,8 +1920,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="3" t="s">
         <v>4</v>
       </c>
@@ -1935,8 +1939,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1954,8 +1958,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
@@ -1973,8 +1977,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
@@ -1992,10 +1996,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="A60" s="12">
         <v>13</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>44147</v>
       </c>
       <c r="C60" s="3">
@@ -2015,8 +2019,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="3">
         <v>120</v>
       </c>
@@ -2034,8 +2038,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="3">
         <v>138</v>
       </c>
@@ -2053,8 +2057,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="3">
         <v>146</v>
       </c>
@@ -2072,8 +2076,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="3">
         <v>106</v>
       </c>
@@ -2091,10 +2095,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="12">
         <v>14</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>44154</v>
       </c>
       <c r="C65" s="3">
@@ -2114,8 +2118,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="3">
         <v>137</v>
       </c>
@@ -2133,8 +2137,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="3">
         <v>148</v>
       </c>
@@ -2152,8 +2156,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="3">
         <v>152</v>
       </c>
@@ -2171,8 +2175,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="3">
         <v>152</v>
       </c>
@@ -2190,10 +2194,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="A70" s="12">
         <v>15</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <v>44154</v>
       </c>
       <c r="C70" s="3">
@@ -2213,8 +2217,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="3">
         <v>138</v>
       </c>
@@ -2232,8 +2236,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="3">
         <v>124</v>
       </c>
@@ -2251,8 +2255,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="3">
         <v>124</v>
       </c>
@@ -2270,8 +2274,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="3">
         <v>142</v>
       </c>
@@ -2289,10 +2293,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+      <c r="A75" s="12">
         <v>16</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>44167</v>
       </c>
       <c r="C75" s="3">
@@ -2312,8 +2316,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="3">
         <v>117</v>
       </c>
@@ -2331,8 +2335,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="3">
         <v>140</v>
       </c>
@@ -2350,8 +2354,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="3">
         <v>147</v>
       </c>
@@ -2369,8 +2373,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="3">
         <v>132</v>
       </c>
@@ -2388,8 +2392,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="3">
         <v>146</v>
       </c>
@@ -2407,10 +2411,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+      <c r="A81" s="12">
         <v>17</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="13">
         <v>44168</v>
       </c>
       <c r="C81" s="3">
@@ -2430,8 +2434,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="3">
         <v>119</v>
       </c>
@@ -2449,8 +2453,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="14"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="3">
         <v>170</v>
       </c>
@@ -2468,8 +2472,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="3">
         <v>139</v>
       </c>
@@ -2487,8 +2491,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="3">
         <v>136</v>
       </c>
@@ -2506,10 +2510,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+      <c r="A86" s="12">
         <v>18</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>44175</v>
       </c>
       <c r="C86" s="3">
@@ -2529,8 +2533,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="14"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="3">
         <v>109</v>
       </c>
@@ -2548,8 +2552,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="14"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="3">
         <v>125</v>
       </c>
@@ -2567,8 +2571,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="14"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="3">
         <v>109</v>
       </c>
@@ -2586,8 +2590,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="14"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="3">
         <v>142</v>
       </c>
@@ -2608,7 +2612,7 @@
       <c r="A91" s="20">
         <v>19</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="13">
         <v>44180</v>
       </c>
       <c r="C91" s="3">
@@ -2629,7 +2633,7 @@
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="3">
         <v>102</v>
       </c>
@@ -2648,7 +2652,7 @@
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="14"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="3">
         <v>194</v>
       </c>
@@ -2667,7 +2671,7 @@
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="14"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="3">
         <v>108</v>
       </c>
@@ -2686,7 +2690,7 @@
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="14"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="3">
         <v>111</v>
       </c>
@@ -2705,7 +2709,7 @@
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="14"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="3">
         <v>105</v>
       </c>
@@ -2723,10 +2727,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
+      <c r="A97" s="12">
         <v>20</v>
       </c>
-      <c r="B97" s="18">
+      <c r="B97" s="14">
         <v>44189</v>
       </c>
       <c r="C97" s="3">
@@ -2746,8 +2750,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="3">
         <v>111</v>
       </c>
@@ -2765,8 +2769,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="3">
         <v>100</v>
       </c>
@@ -2784,10 +2788,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
+      <c r="A100" s="12">
         <v>21</v>
       </c>
-      <c r="B100" s="14">
+      <c r="B100" s="13">
         <v>44195</v>
       </c>
       <c r="C100" s="3">
@@ -2807,8 +2811,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="3">
         <v>132</v>
       </c>
@@ -2826,8 +2830,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
-      <c r="B102" s="14"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="3">
         <v>99</v>
       </c>
@@ -2845,8 +2849,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="3">
         <v>95</v>
       </c>
@@ -2864,8 +2868,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="3">
         <v>107</v>
       </c>
@@ -2883,10 +2887,10 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
+      <c r="A105" s="12">
         <v>22</v>
       </c>
-      <c r="B105" s="14">
+      <c r="B105" s="13">
         <v>44196</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -2906,8 +2910,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
-      <c r="B106" s="14"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="3" t="s">
         <v>4</v>
       </c>
@@ -2925,8 +2929,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
-      <c r="B107" s="14"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="3" t="s">
         <v>4</v>
       </c>
@@ -2944,8 +2948,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
-      <c r="B108" s="14"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="3" t="s">
         <v>4</v>
       </c>
@@ -2963,8 +2967,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="14"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="3" t="s">
         <v>4</v>
       </c>
@@ -2982,8 +2986,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="14"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="3" t="s">
         <v>4</v>
       </c>
@@ -3001,10 +3005,10 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="17">
+      <c r="A111" s="12">
         <v>23</v>
       </c>
-      <c r="B111" s="14">
+      <c r="B111" s="13">
         <v>44202</v>
       </c>
       <c r="C111" s="3">
@@ -3024,8 +3028,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
-      <c r="B112" s="14"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="3">
         <v>143</v>
       </c>
@@ -3043,8 +3047,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
-      <c r="B113" s="14"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="3">
         <v>111</v>
       </c>
@@ -3062,8 +3066,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
-      <c r="B114" s="14"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="3">
         <v>104</v>
       </c>
@@ -3081,8 +3085,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
-      <c r="B115" s="14"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="3">
         <v>127</v>
       </c>
@@ -3100,10 +3104,10 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="17">
+      <c r="A116" s="12">
         <v>24</v>
       </c>
-      <c r="B116" s="14">
+      <c r="B116" s="13">
         <v>44206</v>
       </c>
       <c r="C116" s="3">
@@ -3123,8 +3127,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
-      <c r="B117" s="14"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="3">
         <v>130</v>
       </c>
@@ -3142,8 +3146,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="17"/>
-      <c r="B118" s="14"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="3">
         <v>145</v>
       </c>
@@ -3161,8 +3165,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="17"/>
-      <c r="B119" s="14"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="3">
         <v>140</v>
       </c>
@@ -3180,8 +3184,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="17"/>
-      <c r="B120" s="14"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="3">
         <v>96</v>
       </c>
@@ -3199,8 +3203,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
-      <c r="B121" s="14"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="3">
         <v>145</v>
       </c>
@@ -3218,8 +3222,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
-      <c r="B122" s="14"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="3">
         <v>103</v>
       </c>
@@ -3237,10 +3241,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="17">
+      <c r="A123" s="12">
         <v>25</v>
       </c>
-      <c r="B123" s="14">
+      <c r="B123" s="13">
         <v>44209</v>
       </c>
       <c r="C123" s="3">
@@ -3260,8 +3264,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="17"/>
-      <c r="B124" s="14"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="3">
         <v>124</v>
       </c>
@@ -3279,8 +3283,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="17"/>
-      <c r="B125" s="14"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="3">
         <v>121</v>
       </c>
@@ -3298,8 +3302,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="17"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="3">
         <v>95</v>
       </c>
@@ -3317,8 +3321,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="17"/>
-      <c r="B127" s="14"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="3">
         <v>113</v>
       </c>
@@ -3336,10 +3340,10 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="17">
+      <c r="A128" s="12">
         <v>26</v>
       </c>
-      <c r="B128" s="14">
+      <c r="B128" s="13">
         <v>44223</v>
       </c>
       <c r="C128" s="3">
@@ -3359,8 +3363,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="17"/>
-      <c r="B129" s="14"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="13"/>
       <c r="C129" s="3">
         <v>124</v>
       </c>
@@ -3378,8 +3382,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="17"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="13"/>
       <c r="C130" s="3">
         <v>142</v>
       </c>
@@ -3397,8 +3401,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="17"/>
-      <c r="B131" s="14"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="3">
         <v>142</v>
       </c>
@@ -3416,8 +3420,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="17"/>
-      <c r="B132" s="14"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="13"/>
       <c r="C132" s="3">
         <v>102</v>
       </c>
@@ -3435,10 +3439,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="17">
+      <c r="A133" s="12">
         <v>27</v>
       </c>
-      <c r="B133" s="14">
+      <c r="B133" s="13">
         <v>44230</v>
       </c>
       <c r="C133" s="3">
@@ -3458,8 +3462,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="17"/>
-      <c r="B134" s="14"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="13"/>
       <c r="C134" s="3">
         <v>132</v>
       </c>
@@ -3477,8 +3481,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="17"/>
-      <c r="B135" s="14"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="3">
         <v>110</v>
       </c>
@@ -3496,8 +3500,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
-      <c r="B136" s="14"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="13"/>
       <c r="C136" s="3">
         <v>118</v>
       </c>
@@ -3515,8 +3519,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="17"/>
-      <c r="B137" s="14"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="3">
         <v>141</v>
       </c>
@@ -3534,10 +3538,10 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="14">
+      <c r="B138" s="13">
         <v>44246</v>
       </c>
       <c r="C138" s="3">
@@ -3557,8 +3561,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="3">
         <v>125</v>
       </c>
@@ -3576,10 +3580,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="14">
+      <c r="B140" s="13">
         <v>44246</v>
       </c>
       <c r="C140" s="3">
@@ -3599,8 +3603,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="14"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="3">
         <v>134</v>
       </c>
@@ -3618,8 +3622,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
-      <c r="B142" s="14"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="13"/>
       <c r="C142" s="3">
         <v>136</v>
       </c>
@@ -3637,8 +3641,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
-      <c r="B143" s="14"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="13"/>
       <c r="C143" s="3">
         <v>129</v>
       </c>
@@ -3656,8 +3660,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
-      <c r="B144" s="14"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="13"/>
       <c r="C144" s="3">
         <v>145</v>
       </c>
@@ -3675,10 +3679,10 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="17">
+      <c r="A145" s="12">
         <v>29</v>
       </c>
-      <c r="B145" s="14">
+      <c r="B145" s="13">
         <v>44260</v>
       </c>
       <c r="C145" s="3">
@@ -3698,8 +3702,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="17"/>
-      <c r="B146" s="14"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
       <c r="C146" s="3">
         <v>157</v>
       </c>
@@ -3717,8 +3721,8 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="17"/>
-      <c r="B147" s="14"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="13"/>
       <c r="C147" s="3">
         <v>155</v>
       </c>
@@ -3736,8 +3740,8 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="17"/>
-      <c r="B148" s="14"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="13"/>
       <c r="C148" s="3">
         <v>138</v>
       </c>
@@ -3755,8 +3759,8 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="17"/>
-      <c r="B149" s="14"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="13"/>
       <c r="C149" s="3">
         <v>134</v>
       </c>
@@ -3774,8 +3778,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="17"/>
-      <c r="B150" s="14"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="13"/>
       <c r="C150" s="3">
         <v>85</v>
       </c>
@@ -3793,10 +3797,10 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="17">
+      <c r="A151" s="12">
         <v>30</v>
       </c>
-      <c r="B151" s="14">
+      <c r="B151" s="13">
         <v>44267</v>
       </c>
       <c r="C151" s="3">
@@ -3816,8 +3820,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="17"/>
-      <c r="B152" s="14"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
       <c r="C152" s="3">
         <v>108</v>
       </c>
@@ -3835,8 +3839,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="17"/>
-      <c r="B153" s="14"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="13"/>
       <c r="C153" s="3">
         <v>129</v>
       </c>
@@ -3854,8 +3858,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="17"/>
-      <c r="B154" s="14"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
       <c r="C154" s="3">
         <v>93</v>
       </c>
@@ -3873,8 +3877,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="17"/>
-      <c r="B155" s="14"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="13"/>
       <c r="C155" s="3">
         <v>104</v>
       </c>
@@ -3892,8 +3896,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="17"/>
-      <c r="B156" s="14"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="13"/>
       <c r="C156" s="3">
         <v>110</v>
       </c>
@@ -3911,10 +3915,10 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B157" s="14">
+      <c r="B157" s="13">
         <v>44272</v>
       </c>
       <c r="C157" s="3">
@@ -3934,8 +3938,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="13"/>
-      <c r="B158" s="14"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="13"/>
       <c r="C158" s="3">
         <v>110</v>
       </c>
@@ -3953,8 +3957,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
-      <c r="B159" s="14"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="13"/>
       <c r="C159" s="3">
         <v>136</v>
       </c>
@@ -3972,8 +3976,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
-      <c r="B160" s="14"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="13"/>
       <c r="C160" s="3">
         <v>105</v>
       </c>
@@ -3991,8 +3995,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
-      <c r="B161" s="14"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="13"/>
       <c r="C161" s="3">
         <v>126</v>
       </c>
@@ -4010,10 +4014,10 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="14">
+      <c r="B162" s="13">
         <v>44278</v>
       </c>
       <c r="C162" s="3">
@@ -4033,8 +4037,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
-      <c r="B163" s="14"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="13"/>
       <c r="C163" s="3">
         <v>131</v>
       </c>
@@ -4052,8 +4056,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
-      <c r="B164" s="14"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="13"/>
       <c r="C164" s="3">
         <v>135</v>
       </c>
@@ -4071,8 +4075,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="14"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="13"/>
       <c r="C165" s="3">
         <v>122</v>
       </c>
@@ -4090,8 +4094,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
-      <c r="B166" s="14"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="13"/>
       <c r="C166" s="3">
         <v>114</v>
       </c>
@@ -4109,10 +4113,10 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="14">
+      <c r="B167" s="13">
         <v>44294</v>
       </c>
       <c r="C167" s="3">
@@ -4132,8 +4136,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
-      <c r="B168" s="14"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="13"/>
       <c r="C168" s="3">
         <v>108</v>
       </c>
@@ -4151,8 +4155,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="14"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="13"/>
       <c r="C169" s="3">
         <v>99</v>
       </c>
@@ -4170,8 +4174,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
-      <c r="B170" s="14"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="13"/>
       <c r="C170" s="3">
         <v>105</v>
       </c>
@@ -4189,8 +4193,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="14"/>
+      <c r="A171" s="21"/>
+      <c r="B171" s="13"/>
       <c r="C171" s="3">
         <v>121</v>
       </c>
@@ -4208,10 +4212,10 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="14">
+      <c r="B172" s="13">
         <v>44300</v>
       </c>
       <c r="C172" s="3">
@@ -4231,8 +4235,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="14"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="13"/>
       <c r="C173" s="3">
         <v>133</v>
       </c>
@@ -4250,8 +4254,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="14"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="13"/>
       <c r="C174" s="3">
         <v>131</v>
       </c>
@@ -4269,8 +4273,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
-      <c r="B175" s="14"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="13"/>
       <c r="C175" s="3">
         <v>96</v>
       </c>
@@ -4288,8 +4292,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
-      <c r="B176" s="14"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="13"/>
       <c r="C176" s="3">
         <v>103</v>
       </c>
@@ -4307,10 +4311,10 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B177" s="14">
+      <c r="B177" s="13">
         <v>44307</v>
       </c>
       <c r="C177" s="3">
@@ -4330,8 +4334,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="14"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="13"/>
       <c r="C178" s="3">
         <v>107</v>
       </c>
@@ -4349,8 +4353,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
-      <c r="B179" s="14"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="13"/>
       <c r="C179" s="3">
         <v>120</v>
       </c>
@@ -4368,8 +4372,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
-      <c r="B180" s="14"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="13"/>
       <c r="C180" s="3">
         <v>123</v>
       </c>
@@ -4387,8 +4391,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="B181" s="14"/>
+      <c r="A181" s="21"/>
+      <c r="B181" s="13"/>
       <c r="C181" s="3">
         <v>97</v>
       </c>
@@ -4406,8 +4410,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
-      <c r="B182" s="14"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="13"/>
       <c r="C182" s="3">
         <v>134</v>
       </c>
@@ -4425,10 +4429,10 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="13" t="s">
+      <c r="A183" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B183" s="14">
+      <c r="B183" s="13">
         <v>44315</v>
       </c>
       <c r="C183" s="3">
@@ -4448,8 +4452,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
-      <c r="B184" s="14"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="13"/>
       <c r="C184" s="3">
         <v>91</v>
       </c>
@@ -4467,8 +4471,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="14"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="13"/>
       <c r="C185" s="3">
         <v>82</v>
       </c>
@@ -4486,8 +4490,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
-      <c r="B186" s="14"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="13"/>
       <c r="C186" s="3">
         <v>82</v>
       </c>
@@ -4505,8 +4509,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="14"/>
+      <c r="A187" s="21"/>
+      <c r="B187" s="13"/>
       <c r="C187" s="3">
         <v>114</v>
       </c>
@@ -4524,10 +4528,10 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="13" t="s">
+      <c r="A188" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B188" s="14">
+      <c r="B188" s="13">
         <v>44322</v>
       </c>
       <c r="C188" s="3">
@@ -4547,8 +4551,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="14"/>
+      <c r="A189" s="21"/>
+      <c r="B189" s="13"/>
       <c r="C189" s="3">
         <v>182</v>
       </c>
@@ -4566,8 +4570,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
-      <c r="B190" s="14"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="13"/>
       <c r="C190" s="3">
         <v>142</v>
       </c>
@@ -4585,8 +4589,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
-      <c r="B191" s="14"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="13"/>
       <c r="C191" s="3">
         <v>158</v>
       </c>
@@ -4604,8 +4608,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="14"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="13"/>
       <c r="C192" s="3">
         <v>155</v>
       </c>
@@ -4623,10 +4627,10 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B193" s="14">
+      <c r="B193" s="13">
         <v>44426</v>
       </c>
       <c r="C193" s="3">
@@ -4646,8 +4650,8 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="16"/>
-      <c r="B194" s="14"/>
+      <c r="A194" s="22"/>
+      <c r="B194" s="13"/>
       <c r="C194" s="3">
         <v>146</v>
       </c>
@@ -4665,8 +4669,8 @@
       </c>
     </row>
     <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="16"/>
-      <c r="B195" s="14"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="13"/>
       <c r="C195" s="3">
         <v>123</v>
       </c>
@@ -4684,8 +4688,8 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="16"/>
-      <c r="B196" s="14"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="13"/>
       <c r="C196" s="3">
         <v>111</v>
       </c>
@@ -4703,8 +4707,8 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="16"/>
-      <c r="B197" s="14"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="13"/>
       <c r="C197" s="3">
         <v>97</v>
       </c>
@@ -4722,10 +4726,10 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B198" s="14">
+      <c r="B198" s="13">
         <v>44441</v>
       </c>
       <c r="C198" s="3">
@@ -4745,8 +4749,8 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="14"/>
+      <c r="A199" s="21"/>
+      <c r="B199" s="13"/>
       <c r="C199" s="3">
         <v>79</v>
       </c>
@@ -4764,8 +4768,8 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="14"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="13"/>
       <c r="C200" s="3">
         <v>103</v>
       </c>
@@ -4783,8 +4787,8 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="14"/>
+      <c r="A201" s="21"/>
+      <c r="B201" s="13"/>
       <c r="C201" s="3">
         <v>113</v>
       </c>
@@ -4802,8 +4806,8 @@
       </c>
     </row>
     <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="14"/>
+      <c r="A202" s="21"/>
+      <c r="B202" s="13"/>
       <c r="C202" s="3">
         <v>111</v>
       </c>
@@ -4821,10 +4825,10 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
+      <c r="A203" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B203" s="14">
+      <c r="B203" s="13">
         <v>44448</v>
       </c>
       <c r="C203" s="3">
@@ -4844,8 +4848,8 @@
       </c>
     </row>
     <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
-      <c r="B204" s="14"/>
+      <c r="A204" s="21"/>
+      <c r="B204" s="13"/>
       <c r="C204" s="3">
         <v>141</v>
       </c>
@@ -4863,8 +4867,8 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="13"/>
-      <c r="B205" s="14"/>
+      <c r="A205" s="21"/>
+      <c r="B205" s="13"/>
       <c r="C205" s="3">
         <v>100</v>
       </c>
@@ -4882,8 +4886,8 @@
       </c>
     </row>
     <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="13"/>
-      <c r="B206" s="14"/>
+      <c r="A206" s="21"/>
+      <c r="B206" s="13"/>
       <c r="C206" s="3">
         <v>129</v>
       </c>
@@ -4901,8 +4905,8 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
-      <c r="B207" s="14"/>
+      <c r="A207" s="21"/>
+      <c r="B207" s="13"/>
       <c r="C207" s="3">
         <v>135</v>
       </c>
@@ -4920,8 +4924,8 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
-      <c r="B208" s="14"/>
+      <c r="A208" s="21"/>
+      <c r="B208" s="13"/>
       <c r="C208" s="3">
         <v>136</v>
       </c>
@@ -4939,10 +4943,10 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B209" s="14">
+      <c r="B209" s="13">
         <v>44468</v>
       </c>
       <c r="C209" s="3">
@@ -4962,8 +4966,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
-      <c r="B210" s="14"/>
+      <c r="A210" s="21"/>
+      <c r="B210" s="13"/>
       <c r="C210" s="3">
         <v>87</v>
       </c>
@@ -4981,8 +4985,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="13"/>
-      <c r="B211" s="14"/>
+      <c r="A211" s="21"/>
+      <c r="B211" s="13"/>
       <c r="C211" s="3">
         <v>124</v>
       </c>
@@ -5000,8 +5004,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="13"/>
-      <c r="B212" s="14"/>
+      <c r="A212" s="21"/>
+      <c r="B212" s="13"/>
       <c r="C212" s="3">
         <v>110</v>
       </c>
@@ -5019,8 +5023,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="13"/>
-      <c r="B213" s="14"/>
+      <c r="A213" s="21"/>
+      <c r="B213" s="13"/>
       <c r="C213" s="3">
         <v>107</v>
       </c>
@@ -5038,10 +5042,10 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="12" t="s">
+      <c r="A214" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B214" s="14">
+      <c r="B214" s="13">
         <v>44477</v>
       </c>
       <c r="C214" s="3">
@@ -5061,8 +5065,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="13"/>
-      <c r="B215" s="14"/>
+      <c r="A215" s="21"/>
+      <c r="B215" s="13"/>
       <c r="C215" s="3">
         <v>110</v>
       </c>
@@ -5080,8 +5084,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
-      <c r="B216" s="14"/>
+      <c r="A216" s="21"/>
+      <c r="B216" s="13"/>
       <c r="C216" s="3">
         <v>93</v>
       </c>
@@ -5099,8 +5103,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="13"/>
-      <c r="B217" s="14"/>
+      <c r="A217" s="21"/>
+      <c r="B217" s="13"/>
       <c r="C217" s="3">
         <v>155</v>
       </c>
@@ -5118,8 +5122,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
-      <c r="B218" s="14"/>
+      <c r="A218" s="21"/>
+      <c r="B218" s="13"/>
       <c r="C218" s="3">
         <v>123</v>
       </c>
@@ -5137,10 +5141,10 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="12" t="s">
+      <c r="A219" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B219" s="14">
+      <c r="B219" s="13">
         <v>44484</v>
       </c>
       <c r="C219" s="3">
@@ -5160,8 +5164,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="13"/>
-      <c r="B220" s="14"/>
+      <c r="A220" s="21"/>
+      <c r="B220" s="13"/>
       <c r="C220" s="3">
         <v>154</v>
       </c>
@@ -5179,8 +5183,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="13"/>
-      <c r="B221" s="14"/>
+      <c r="A221" s="21"/>
+      <c r="B221" s="13"/>
       <c r="C221" s="3">
         <v>126</v>
       </c>
@@ -5198,8 +5202,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
-      <c r="B222" s="14"/>
+      <c r="A222" s="21"/>
+      <c r="B222" s="13"/>
       <c r="C222" s="3">
         <v>100</v>
       </c>
@@ -5217,8 +5221,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
-      <c r="B223" s="14"/>
+      <c r="A223" s="21"/>
+      <c r="B223" s="13"/>
       <c r="C223" s="3">
         <v>138</v>
       </c>
@@ -5236,10 +5240,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="12" t="s">
+      <c r="A224" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B224" s="14">
+      <c r="B224" s="13">
         <v>44490</v>
       </c>
       <c r="C224" s="3">
@@ -5259,8 +5263,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="13"/>
-      <c r="B225" s="14"/>
+      <c r="A225" s="21"/>
+      <c r="B225" s="13"/>
       <c r="C225" s="3">
         <v>132</v>
       </c>
@@ -5278,8 +5282,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="13"/>
-      <c r="B226" s="14"/>
+      <c r="A226" s="21"/>
+      <c r="B226" s="13"/>
       <c r="C226" s="3">
         <v>122</v>
       </c>
@@ -5297,8 +5301,8 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="13"/>
-      <c r="B227" s="14"/>
+      <c r="A227" s="21"/>
+      <c r="B227" s="13"/>
       <c r="C227" s="3">
         <v>108</v>
       </c>
@@ -5316,8 +5320,8 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="13"/>
-      <c r="B228" s="14"/>
+      <c r="A228" s="21"/>
+      <c r="B228" s="13"/>
       <c r="C228" s="3">
         <v>141</v>
       </c>
@@ -5335,10 +5339,10 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="12" t="s">
+      <c r="A229" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B229" s="14">
+      <c r="B229" s="13">
         <v>44496</v>
       </c>
       <c r="C229" s="3">
@@ -5358,8 +5362,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="13"/>
-      <c r="B230" s="14"/>
+      <c r="A230" s="21"/>
+      <c r="B230" s="13"/>
       <c r="C230" s="3">
         <v>107</v>
       </c>
@@ -5377,8 +5381,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
-      <c r="B231" s="14"/>
+      <c r="A231" s="21"/>
+      <c r="B231" s="13"/>
       <c r="C231" s="3">
         <v>129</v>
       </c>
@@ -5396,8 +5400,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
-      <c r="B232" s="14"/>
+      <c r="A232" s="21"/>
+      <c r="B232" s="13"/>
       <c r="C232" s="3">
         <v>135</v>
       </c>
@@ -5415,8 +5419,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="13"/>
-      <c r="B233" s="14"/>
+      <c r="A233" s="21"/>
+      <c r="B233" s="13"/>
       <c r="C233" s="3">
         <v>127</v>
       </c>
@@ -5434,10 +5438,10 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="12" t="s">
+      <c r="A234" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B234" s="14">
+      <c r="B234" s="13">
         <v>44505</v>
       </c>
       <c r="C234" s="3">
@@ -5457,8 +5461,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="13"/>
-      <c r="B235" s="14"/>
+      <c r="A235" s="21"/>
+      <c r="B235" s="13"/>
       <c r="C235" s="3">
         <v>137</v>
       </c>
@@ -5476,8 +5480,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="13"/>
-      <c r="B236" s="14"/>
+      <c r="A236" s="21"/>
+      <c r="B236" s="13"/>
       <c r="C236" s="3">
         <v>102</v>
       </c>
@@ -5495,8 +5499,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="13"/>
-      <c r="B237" s="14"/>
+      <c r="A237" s="21"/>
+      <c r="B237" s="13"/>
       <c r="C237" s="3">
         <v>111</v>
       </c>
@@ -5514,8 +5518,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="13"/>
-      <c r="B238" s="14"/>
+      <c r="A238" s="21"/>
+      <c r="B238" s="13"/>
       <c r="C238" s="3">
         <v>130</v>
       </c>
@@ -5533,10 +5537,10 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="12" t="s">
+      <c r="A239" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B239" s="14">
+      <c r="B239" s="13">
         <v>44511</v>
       </c>
       <c r="C239" s="3">
@@ -5556,8 +5560,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
-      <c r="B240" s="14"/>
+      <c r="A240" s="21"/>
+      <c r="B240" s="13"/>
       <c r="C240" s="3">
         <v>135</v>
       </c>
@@ -5575,8 +5579,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="13"/>
-      <c r="B241" s="14"/>
+      <c r="A241" s="21"/>
+      <c r="B241" s="13"/>
       <c r="C241" s="3">
         <v>123</v>
       </c>
@@ -5594,8 +5598,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A242" s="13"/>
-      <c r="B242" s="14"/>
+      <c r="A242" s="21"/>
+      <c r="B242" s="13"/>
       <c r="C242" s="3">
         <v>131</v>
       </c>
@@ -5613,8 +5617,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="13"/>
-      <c r="B243" s="14"/>
+      <c r="A243" s="21"/>
+      <c r="B243" s="13"/>
       <c r="C243" s="3">
         <v>110</v>
       </c>
@@ -5632,10 +5636,10 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="12" t="s">
+      <c r="A244" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B244" s="14">
+      <c r="B244" s="13">
         <v>44533</v>
       </c>
       <c r="C244" s="3">
@@ -5655,8 +5659,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="13"/>
-      <c r="B245" s="14"/>
+      <c r="A245" s="21"/>
+      <c r="B245" s="13"/>
       <c r="C245" s="3">
         <v>169</v>
       </c>
@@ -5674,8 +5678,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="13"/>
-      <c r="B246" s="14"/>
+      <c r="A246" s="21"/>
+      <c r="B246" s="13"/>
       <c r="C246" s="3">
         <v>98</v>
       </c>
@@ -5693,8 +5697,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="13"/>
-      <c r="B247" s="14"/>
+      <c r="A247" s="21"/>
+      <c r="B247" s="13"/>
       <c r="C247" s="3">
         <v>132</v>
       </c>
@@ -5712,8 +5716,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A248" s="13"/>
-      <c r="B248" s="14"/>
+      <c r="A248" s="21"/>
+      <c r="B248" s="13"/>
       <c r="C248" s="3">
         <v>133</v>
       </c>
@@ -5731,8 +5735,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="13"/>
-      <c r="B249" s="14"/>
+      <c r="A249" s="21"/>
+      <c r="B249" s="13"/>
       <c r="C249" s="3">
         <v>90</v>
       </c>
@@ -5750,10 +5754,10 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A250" s="12" t="s">
+      <c r="A250" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B250" s="14">
+      <c r="B250" s="13">
         <v>44540</v>
       </c>
       <c r="C250" s="3">
@@ -5773,8 +5777,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="13"/>
-      <c r="B251" s="14"/>
+      <c r="A251" s="21"/>
+      <c r="B251" s="13"/>
       <c r="C251" s="3">
         <v>121</v>
       </c>
@@ -5792,8 +5796,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="13"/>
-      <c r="B252" s="14"/>
+      <c r="A252" s="21"/>
+      <c r="B252" s="13"/>
       <c r="C252" s="3">
         <v>109</v>
       </c>
@@ -5811,8 +5815,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="13"/>
-      <c r="B253" s="14"/>
+      <c r="A253" s="21"/>
+      <c r="B253" s="13"/>
       <c r="C253" s="3">
         <v>127</v>
       </c>
@@ -5830,8 +5834,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="13"/>
-      <c r="B254" s="14"/>
+      <c r="A254" s="21"/>
+      <c r="B254" s="13"/>
       <c r="C254" s="3">
         <v>118</v>
       </c>
@@ -5849,10 +5853,10 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="12" t="s">
+      <c r="A255" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B255" s="14">
+      <c r="B255" s="13">
         <v>44554</v>
       </c>
       <c r="C255" s="3">
@@ -5872,8 +5876,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A256" s="13"/>
-      <c r="B256" s="14"/>
+      <c r="A256" s="21"/>
+      <c r="B256" s="13"/>
       <c r="C256" s="3">
         <v>96</v>
       </c>
@@ -5891,8 +5895,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
-      <c r="B257" s="14"/>
+      <c r="A257" s="21"/>
+      <c r="B257" s="13"/>
       <c r="C257" s="3">
         <v>106</v>
       </c>
@@ -5910,8 +5914,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A258" s="13"/>
-      <c r="B258" s="14"/>
+      <c r="A258" s="21"/>
+      <c r="B258" s="13"/>
       <c r="C258" s="3">
         <v>93</v>
       </c>
@@ -5929,8 +5933,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A259" s="13"/>
-      <c r="B259" s="14"/>
+      <c r="A259" s="21"/>
+      <c r="B259" s="13"/>
       <c r="C259" s="3">
         <v>139</v>
       </c>
@@ -5948,8 +5952,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="13"/>
-      <c r="B260" s="14"/>
+      <c r="A260" s="21"/>
+      <c r="B260" s="13"/>
       <c r="C260" s="3">
         <v>126</v>
       </c>
@@ -5967,10 +5971,10 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="12" t="s">
+      <c r="A261" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B261" s="14">
+      <c r="B261" s="13">
         <v>44568</v>
       </c>
       <c r="C261" s="3">
@@ -5990,8 +5994,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="13"/>
-      <c r="B262" s="14"/>
+      <c r="A262" s="21"/>
+      <c r="B262" s="13"/>
       <c r="C262" s="3">
         <v>112</v>
       </c>
@@ -6009,8 +6013,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="13"/>
-      <c r="B263" s="14"/>
+      <c r="A263" s="21"/>
+      <c r="B263" s="13"/>
       <c r="C263" s="3">
         <v>107</v>
       </c>
@@ -6028,8 +6032,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="13"/>
-      <c r="B264" s="14"/>
+      <c r="A264" s="21"/>
+      <c r="B264" s="13"/>
       <c r="C264" s="3">
         <v>142</v>
       </c>
@@ -6047,8 +6051,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
-      <c r="B265" s="14"/>
+      <c r="A265" s="21"/>
+      <c r="B265" s="13"/>
       <c r="C265" s="3">
         <v>126</v>
       </c>
@@ -6066,10 +6070,10 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="12" t="s">
+      <c r="A266" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B266" s="14">
+      <c r="B266" s="13">
         <v>44582</v>
       </c>
       <c r="C266" s="3">
@@ -6089,8 +6093,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
-      <c r="B267" s="14"/>
+      <c r="A267" s="21"/>
+      <c r="B267" s="13"/>
       <c r="C267" s="3">
         <v>128</v>
       </c>
@@ -6108,8 +6112,8 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="13"/>
-      <c r="B268" s="14"/>
+      <c r="A268" s="21"/>
+      <c r="B268" s="13"/>
       <c r="C268" s="3">
         <v>146</v>
       </c>
@@ -6127,8 +6131,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="13"/>
-      <c r="B269" s="14"/>
+      <c r="A269" s="21"/>
+      <c r="B269" s="13"/>
       <c r="C269" s="3">
         <v>131</v>
       </c>
@@ -6146,8 +6150,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="13"/>
-      <c r="B270" s="14"/>
+      <c r="A270" s="21"/>
+      <c r="B270" s="13"/>
       <c r="C270" s="3">
         <v>132</v>
       </c>
@@ -6165,10 +6169,10 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="12" t="s">
+      <c r="A271" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B271" s="14">
+      <c r="B271" s="13">
         <v>44589</v>
       </c>
       <c r="C271" s="3">
@@ -6188,8 +6192,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="13"/>
-      <c r="B272" s="14"/>
+      <c r="A272" s="21"/>
+      <c r="B272" s="13"/>
       <c r="C272" s="3">
         <v>125</v>
       </c>
@@ -6207,8 +6211,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
-      <c r="B273" s="14"/>
+      <c r="A273" s="21"/>
+      <c r="B273" s="13"/>
       <c r="C273" s="3">
         <v>100</v>
       </c>
@@ -6226,8 +6230,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="13"/>
-      <c r="B274" s="14"/>
+      <c r="A274" s="21"/>
+      <c r="B274" s="13"/>
       <c r="C274" s="3">
         <v>124</v>
       </c>
@@ -6245,8 +6249,8 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A275" s="13"/>
-      <c r="B275" s="14"/>
+      <c r="A275" s="21"/>
+      <c r="B275" s="13"/>
       <c r="C275" s="3">
         <v>134</v>
       </c>
@@ -6264,10 +6268,10 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A276" s="12" t="s">
+      <c r="A276" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B276" s="14">
+      <c r="B276" s="13">
         <v>44596</v>
       </c>
       <c r="C276" s="3">
@@ -6287,8 +6291,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A277" s="13"/>
-      <c r="B277" s="14"/>
+      <c r="A277" s="21"/>
+      <c r="B277" s="13"/>
       <c r="C277" s="3">
         <v>100</v>
       </c>
@@ -6306,8 +6310,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A278" s="13"/>
-      <c r="B278" s="14"/>
+      <c r="A278" s="21"/>
+      <c r="B278" s="13"/>
       <c r="C278" s="3">
         <v>116</v>
       </c>
@@ -6325,8 +6329,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A279" s="13"/>
-      <c r="B279" s="14"/>
+      <c r="A279" s="21"/>
+      <c r="B279" s="13"/>
       <c r="C279" s="3">
         <v>128</v>
       </c>
@@ -6344,10 +6348,10 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A280" s="12" t="s">
+      <c r="A280" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B280" s="14">
+      <c r="B280" s="13">
         <v>44624</v>
       </c>
       <c r="C280" s="3">
@@ -6367,8 +6371,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="13"/>
-      <c r="B281" s="14"/>
+      <c r="A281" s="21"/>
+      <c r="B281" s="13"/>
       <c r="C281" s="3">
         <v>106</v>
       </c>
@@ -6386,8 +6390,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A282" s="13"/>
-      <c r="B282" s="14"/>
+      <c r="A282" s="21"/>
+      <c r="B282" s="13"/>
       <c r="C282" s="3">
         <v>123</v>
       </c>
@@ -6405,8 +6409,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A283" s="13"/>
-      <c r="B283" s="14"/>
+      <c r="A283" s="21"/>
+      <c r="B283" s="13"/>
       <c r="C283" s="3">
         <v>130</v>
       </c>
@@ -6424,10 +6428,10 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B284" s="14">
+      <c r="B284" s="13">
         <v>44633</v>
       </c>
       <c r="C284" s="3">
@@ -6447,8 +6451,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A285" s="16"/>
-      <c r="B285" s="14"/>
+      <c r="A285" s="22"/>
+      <c r="B285" s="13"/>
       <c r="C285" s="3">
         <v>110</v>
       </c>
@@ -6466,8 +6470,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A286" s="16"/>
-      <c r="B286" s="14"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="13"/>
       <c r="C286" s="3">
         <v>125</v>
       </c>
@@ -6485,8 +6489,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="16"/>
-      <c r="B287" s="14"/>
+      <c r="A287" s="22"/>
+      <c r="B287" s="13"/>
       <c r="C287" s="3">
         <v>139</v>
       </c>
@@ -6504,8 +6508,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A288" s="16"/>
-      <c r="B288" s="14"/>
+      <c r="A288" s="22"/>
+      <c r="B288" s="13"/>
       <c r="C288" s="3">
         <v>130</v>
       </c>
@@ -6523,8 +6527,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A289" s="16"/>
-      <c r="B289" s="14"/>
+      <c r="A289" s="22"/>
+      <c r="B289" s="13"/>
       <c r="C289" s="3">
         <v>103</v>
       </c>
@@ -6542,8 +6546,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A290" s="16"/>
-      <c r="B290" s="14"/>
+      <c r="A290" s="22"/>
+      <c r="B290" s="13"/>
       <c r="C290" s="3">
         <v>115</v>
       </c>
@@ -6561,10 +6565,10 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A291" s="12" t="s">
+      <c r="A291" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B291" s="14">
+      <c r="B291" s="13">
         <v>44652</v>
       </c>
       <c r="C291" s="3">
@@ -6584,8 +6588,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A292" s="13"/>
-      <c r="B292" s="14"/>
+      <c r="A292" s="21"/>
+      <c r="B292" s="13"/>
       <c r="C292" s="3">
         <v>87</v>
       </c>
@@ -6603,8 +6607,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A293" s="13"/>
-      <c r="B293" s="14"/>
+      <c r="A293" s="21"/>
+      <c r="B293" s="13"/>
       <c r="C293" s="3">
         <v>90</v>
       </c>
@@ -6622,8 +6626,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A294" s="13"/>
-      <c r="B294" s="14"/>
+      <c r="A294" s="21"/>
+      <c r="B294" s="13"/>
       <c r="C294" s="3">
         <v>146</v>
       </c>
@@ -6641,8 +6645,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
-      <c r="B295" s="14"/>
+      <c r="A295" s="21"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="3">
         <v>157</v>
       </c>
@@ -6660,8 +6664,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A296" s="13"/>
-      <c r="B296" s="14"/>
+      <c r="A296" s="21"/>
+      <c r="B296" s="13"/>
       <c r="C296" s="3">
         <v>120</v>
       </c>
@@ -6679,8 +6683,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A297" s="13"/>
-      <c r="B297" s="14"/>
+      <c r="A297" s="21"/>
+      <c r="B297" s="13"/>
       <c r="C297" s="3">
         <v>110</v>
       </c>
@@ -6698,10 +6702,10 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A298" s="12" t="s">
+      <c r="A298" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B298" s="14">
+      <c r="B298" s="13">
         <v>44661</v>
       </c>
       <c r="C298" s="3">
@@ -6721,8 +6725,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A299" s="13"/>
-      <c r="B299" s="14"/>
+      <c r="A299" s="21"/>
+      <c r="B299" s="13"/>
       <c r="C299" s="3">
         <v>101</v>
       </c>
@@ -6740,8 +6744,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A300" s="13"/>
-      <c r="B300" s="14"/>
+      <c r="A300" s="21"/>
+      <c r="B300" s="13"/>
       <c r="C300" s="3">
         <v>106</v>
       </c>
@@ -6759,8 +6763,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A301" s="13"/>
-      <c r="B301" s="14"/>
+      <c r="A301" s="21"/>
+      <c r="B301" s="13"/>
       <c r="C301" s="3">
         <v>111</v>
       </c>
@@ -6778,8 +6782,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A302" s="13"/>
-      <c r="B302" s="14"/>
+      <c r="A302" s="21"/>
+      <c r="B302" s="13"/>
       <c r="C302" s="3">
         <v>94</v>
       </c>
@@ -6797,10 +6801,10 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A303" s="12" t="s">
+      <c r="A303" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B303" s="14">
+      <c r="B303" s="13">
         <v>44667</v>
       </c>
       <c r="C303" s="3">
@@ -6820,8 +6824,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A304" s="13"/>
-      <c r="B304" s="14"/>
+      <c r="A304" s="21"/>
+      <c r="B304" s="13"/>
       <c r="C304" s="3">
         <v>115</v>
       </c>
@@ -6839,8 +6843,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A305" s="13"/>
-      <c r="B305" s="14"/>
+      <c r="A305" s="21"/>
+      <c r="B305" s="13"/>
       <c r="C305" s="3">
         <v>100</v>
       </c>
@@ -6858,8 +6862,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A306" s="13"/>
-      <c r="B306" s="14"/>
+      <c r="A306" s="21"/>
+      <c r="B306" s="13"/>
       <c r="C306" s="3">
         <v>121</v>
       </c>
@@ -6877,8 +6881,8 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A307" s="13"/>
-      <c r="B307" s="14"/>
+      <c r="A307" s="21"/>
+      <c r="B307" s="13"/>
       <c r="C307" s="3">
         <v>83</v>
       </c>
@@ -6896,8 +6900,8 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A308" s="13"/>
-      <c r="B308" s="14"/>
+      <c r="A308" s="21"/>
+      <c r="B308" s="13"/>
       <c r="C308" s="3">
         <v>102</v>
       </c>
@@ -6915,10 +6919,10 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A309" s="12" t="s">
+      <c r="A309" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B309" s="14">
+      <c r="B309" s="13">
         <v>44673</v>
       </c>
       <c r="C309" s="3">
@@ -6938,8 +6942,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A310" s="13"/>
-      <c r="B310" s="14"/>
+      <c r="A310" s="21"/>
+      <c r="B310" s="13"/>
       <c r="C310" s="3">
         <v>100</v>
       </c>
@@ -6957,8 +6961,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A311" s="13"/>
-      <c r="B311" s="14"/>
+      <c r="A311" s="21"/>
+      <c r="B311" s="13"/>
       <c r="C311" s="3">
         <v>84</v>
       </c>
@@ -6976,8 +6980,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A312" s="13"/>
-      <c r="B312" s="14"/>
+      <c r="A312" s="21"/>
+      <c r="B312" s="13"/>
       <c r="C312" s="3">
         <v>103</v>
       </c>
@@ -6995,8 +6999,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A313" s="13"/>
-      <c r="B313" s="14"/>
+      <c r="A313" s="21"/>
+      <c r="B313" s="13"/>
       <c r="C313" s="3">
         <v>136</v>
       </c>
@@ -7014,8 +7018,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A314" s="13"/>
-      <c r="B314" s="14"/>
+      <c r="A314" s="21"/>
+      <c r="B314" s="13"/>
       <c r="C314" s="3">
         <v>125</v>
       </c>
@@ -7033,8 +7037,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A315" s="13"/>
-      <c r="B315" s="14"/>
+      <c r="A315" s="21"/>
+      <c r="B315" s="13"/>
       <c r="C315" s="3">
         <v>98</v>
       </c>
@@ -7052,10 +7056,10 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A316" s="12" t="s">
+      <c r="A316" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B316" s="14">
+      <c r="B316" s="13">
         <v>44745</v>
       </c>
       <c r="C316" s="3">
@@ -7075,8 +7079,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A317" s="13"/>
-      <c r="B317" s="14"/>
+      <c r="A317" s="21"/>
+      <c r="B317" s="13"/>
       <c r="C317" s="3">
         <v>105</v>
       </c>
@@ -7094,8 +7098,8 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A318" s="13"/>
-      <c r="B318" s="14"/>
+      <c r="A318" s="21"/>
+      <c r="B318" s="13"/>
       <c r="C318" s="3">
         <v>117</v>
       </c>
@@ -7113,8 +7117,8 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A319" s="13"/>
-      <c r="B319" s="14"/>
+      <c r="A319" s="21"/>
+      <c r="B319" s="13"/>
       <c r="C319" s="3">
         <v>117</v>
       </c>
@@ -7132,8 +7136,8 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A320" s="13"/>
-      <c r="B320" s="14"/>
+      <c r="A320" s="21"/>
+      <c r="B320" s="13"/>
       <c r="C320" s="3">
         <v>116</v>
       </c>
@@ -7151,10 +7155,10 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A321" s="12" t="s">
+      <c r="A321" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B321" s="14">
+      <c r="B321" s="13">
         <v>44772</v>
       </c>
       <c r="C321" s="3">
@@ -7174,8 +7178,8 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A322" s="13"/>
-      <c r="B322" s="14"/>
+      <c r="A322" s="21"/>
+      <c r="B322" s="13"/>
       <c r="C322" s="3">
         <v>103</v>
       </c>
@@ -7193,8 +7197,8 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A323" s="13"/>
-      <c r="B323" s="14"/>
+      <c r="A323" s="21"/>
+      <c r="B323" s="13"/>
       <c r="C323" s="3">
         <v>103</v>
       </c>
@@ -7212,8 +7216,8 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A324" s="13"/>
-      <c r="B324" s="14"/>
+      <c r="A324" s="21"/>
+      <c r="B324" s="13"/>
       <c r="C324" s="3">
         <v>103</v>
       </c>
@@ -7231,8 +7235,8 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A325" s="13"/>
-      <c r="B325" s="14"/>
+      <c r="A325" s="21"/>
+      <c r="B325" s="13"/>
       <c r="C325" s="3">
         <v>90</v>
       </c>
@@ -7250,10 +7254,10 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A326" s="12" t="s">
+      <c r="A326" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B326" s="14">
+      <c r="B326" s="13">
         <v>44836</v>
       </c>
       <c r="C326" s="3">
@@ -7273,8 +7277,8 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A327" s="13"/>
-      <c r="B327" s="14"/>
+      <c r="A327" s="21"/>
+      <c r="B327" s="13"/>
       <c r="C327" s="3">
         <v>125</v>
       </c>
@@ -7292,8 +7296,8 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A328" s="13"/>
-      <c r="B328" s="14"/>
+      <c r="A328" s="21"/>
+      <c r="B328" s="13"/>
       <c r="C328" s="3">
         <v>116</v>
       </c>
@@ -7311,8 +7315,8 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A329" s="13"/>
-      <c r="B329" s="14"/>
+      <c r="A329" s="21"/>
+      <c r="B329" s="13"/>
       <c r="C329" s="3">
         <v>98</v>
       </c>
@@ -7330,8 +7334,8 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A330" s="13"/>
-      <c r="B330" s="14"/>
+      <c r="A330" s="21"/>
+      <c r="B330" s="13"/>
       <c r="C330" s="3">
         <v>84</v>
       </c>
@@ -7349,10 +7353,10 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A331" s="12" t="s">
+      <c r="A331" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B331" s="14">
+      <c r="B331" s="13">
         <v>44850</v>
       </c>
       <c r="C331" s="3">
@@ -7372,8 +7376,8 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A332" s="13"/>
-      <c r="B332" s="14"/>
+      <c r="A332" s="21"/>
+      <c r="B332" s="13"/>
       <c r="C332" s="3">
         <v>112</v>
       </c>
@@ -7391,8 +7395,8 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A333" s="13"/>
-      <c r="B333" s="14"/>
+      <c r="A333" s="21"/>
+      <c r="B333" s="13"/>
       <c r="C333" s="3">
         <v>109</v>
       </c>
@@ -7410,8 +7414,8 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A334" s="13"/>
-      <c r="B334" s="14"/>
+      <c r="A334" s="21"/>
+      <c r="B334" s="13"/>
       <c r="C334" s="3">
         <v>82</v>
       </c>
@@ -7429,8 +7433,8 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A335" s="13"/>
-      <c r="B335" s="14"/>
+      <c r="A335" s="21"/>
+      <c r="B335" s="13"/>
       <c r="C335" s="3">
         <v>132</v>
       </c>
@@ -7447,124 +7451,166 @@
         <v>99</v>
       </c>
     </row>
+    <row r="336" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A336" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B336" s="13">
+        <v>44891</v>
+      </c>
+      <c r="C336" s="3">
+        <v>111</v>
+      </c>
+      <c r="D336" s="3">
+        <v>105</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G336" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A337" s="21"/>
+      <c r="B337" s="13"/>
+      <c r="C337" s="3">
+        <v>98</v>
+      </c>
+      <c r="D337" s="3">
+        <v>138</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G337" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A338" s="21"/>
+      <c r="B338" s="13"/>
+      <c r="C338" s="3">
+        <v>103</v>
+      </c>
+      <c r="D338" s="3">
+        <v>124</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G338" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A339" s="21"/>
+      <c r="B339" s="13"/>
+      <c r="C339" s="3">
+        <v>143</v>
+      </c>
+      <c r="D339" s="3">
+        <v>146</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G339" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A340" s="21"/>
+      <c r="B340" s="13"/>
+      <c r="C340" s="3">
+        <v>114</v>
+      </c>
+      <c r="D340" s="3">
+        <v>141</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G340" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A341" s="21"/>
+      <c r="B341" s="13"/>
+      <c r="C341" s="3">
+        <v>81</v>
+      </c>
+      <c r="D341" s="3">
+        <v>148</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G341" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A342" s="21"/>
+      <c r="B342" s="13"/>
+      <c r="C342" s="3">
+        <v>99</v>
+      </c>
+      <c r="D342" s="3">
+        <v>138</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G342" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A343" s="21"/>
+      <c r="B343" s="13"/>
+      <c r="C343" s="3">
+        <v>125</v>
+      </c>
+      <c r="D343" s="3">
+        <v>135</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G343" s="3">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="A188:A192"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="B183:B187"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="B219:B223"/>
-    <mergeCell ref="A224:A228"/>
-    <mergeCell ref="B224:B228"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="B203:B208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="A250:A254"/>
-    <mergeCell ref="B250:B254"/>
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="B255:B260"/>
-    <mergeCell ref="A261:A265"/>
-    <mergeCell ref="B261:B265"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="A239:A243"/>
-    <mergeCell ref="B239:B243"/>
-    <mergeCell ref="A244:A249"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="A280:A283"/>
-    <mergeCell ref="B280:B283"/>
-    <mergeCell ref="A284:A290"/>
-    <mergeCell ref="B284:B290"/>
-    <mergeCell ref="A291:A297"/>
-    <mergeCell ref="B291:B297"/>
-    <mergeCell ref="A266:A270"/>
-    <mergeCell ref="B266:B270"/>
-    <mergeCell ref="A271:A275"/>
-    <mergeCell ref="B271:B275"/>
-    <mergeCell ref="A276:A279"/>
-    <mergeCell ref="B276:B279"/>
+  <mergeCells count="132">
+    <mergeCell ref="A336:A343"/>
+    <mergeCell ref="B336:B343"/>
     <mergeCell ref="A331:A335"/>
     <mergeCell ref="B331:B335"/>
     <mergeCell ref="A316:A320"/>
@@ -7579,6 +7625,122 @@
     <mergeCell ref="B303:B308"/>
     <mergeCell ref="A309:A315"/>
     <mergeCell ref="B309:B315"/>
+    <mergeCell ref="A280:A283"/>
+    <mergeCell ref="B280:B283"/>
+    <mergeCell ref="A284:A290"/>
+    <mergeCell ref="B284:B290"/>
+    <mergeCell ref="A291:A297"/>
+    <mergeCell ref="B291:B297"/>
+    <mergeCell ref="A266:A270"/>
+    <mergeCell ref="B266:B270"/>
+    <mergeCell ref="A271:A275"/>
+    <mergeCell ref="B271:B275"/>
+    <mergeCell ref="A276:A279"/>
+    <mergeCell ref="B276:B279"/>
+    <mergeCell ref="A250:A254"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="B261:B265"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="B239:B243"/>
+    <mergeCell ref="A244:A249"/>
+    <mergeCell ref="B244:B249"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="A224:A228"/>
+    <mergeCell ref="B224:B228"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="B203:B208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="B133:B137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BowlingWeb/FileUploads/Data.xlsx
+++ b/BowlingWeb/FileUploads/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\ASP.Net\BowlingWeb\BowlingWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD38F8A-247D-4440-97DA-47528590CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A0E988-6AF6-467A-9400-B644CE1ADE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44730" yWindow="720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="46">
   <si>
     <t>Donald</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -262,6 +262,10 @@
     <t>65</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +320,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Adobe Gothic Std B"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Adobe Gothic Std B"/>
@@ -450,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,10 +494,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,10 +518,7 @@
     <xf numFmtId="14" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,19 +527,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,13 +819,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G343"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B324" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B333" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A336" sqref="A336:A343"/>
+      <selection pane="bottomRight" activeCell="A344" sqref="A344:A348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -846,10 +863,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>44069</v>
       </c>
       <c r="C2" s="3">
@@ -869,8 +886,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3">
         <v>141</v>
       </c>
@@ -888,8 +905,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>124</v>
       </c>
@@ -907,10 +924,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>44078</v>
       </c>
       <c r="C5" s="3">
@@ -930,8 +947,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>117</v>
       </c>
@@ -949,8 +966,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>117</v>
       </c>
@@ -968,8 +985,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>110</v>
       </c>
@@ -987,8 +1004,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>130</v>
       </c>
@@ -1006,10 +1023,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="18">
         <v>44084</v>
       </c>
       <c r="C10" s="3">
@@ -1029,8 +1046,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3">
         <v>100</v>
       </c>
@@ -1048,8 +1065,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3">
         <v>114</v>
       </c>
@@ -1067,10 +1084,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>4</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14">
         <v>44091</v>
       </c>
       <c r="C13" s="3">
@@ -1090,8 +1107,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>98</v>
       </c>
@@ -1109,8 +1126,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3">
         <v>132</v>
       </c>
@@ -1128,8 +1145,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3">
         <v>116</v>
       </c>
@@ -1147,8 +1164,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3">
         <v>90</v>
       </c>
@@ -1166,10 +1183,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="17">
         <v>5</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="14">
         <v>44097</v>
       </c>
       <c r="C18" s="3">
@@ -1189,8 +1206,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3">
         <v>119</v>
       </c>
@@ -1208,8 +1225,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3">
         <v>120</v>
       </c>
@@ -1227,8 +1244,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3">
         <v>182</v>
       </c>
@@ -1246,8 +1263,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3">
         <v>156</v>
       </c>
@@ -1265,8 +1282,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3">
         <v>110</v>
       </c>
@@ -1284,10 +1301,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="21">
         <v>6</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>44111</v>
       </c>
       <c r="C24" s="3">
@@ -1307,8 +1324,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3">
         <v>139</v>
       </c>
@@ -1326,8 +1343,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3">
         <v>145</v>
       </c>
@@ -1345,8 +1362,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3">
         <v>170</v>
       </c>
@@ -1364,8 +1381,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3">
         <v>144</v>
       </c>
@@ -1383,10 +1400,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="17">
         <v>7</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="18">
         <v>44115</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1406,8 +1423,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1442,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1444,10 +1461,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="17">
         <v>8</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="14">
         <v>44122</v>
       </c>
       <c r="C32" s="3">
@@ -1467,8 +1484,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3">
         <v>127</v>
       </c>
@@ -1486,8 +1503,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
         <v>174</v>
       </c>
@@ -1505,8 +1522,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <v>106</v>
       </c>
@@ -1524,8 +1541,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <v>128</v>
       </c>
@@ -1543,8 +1560,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <v>148</v>
       </c>
@@ -1562,10 +1579,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="17">
         <v>9</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="14">
         <v>44125</v>
       </c>
       <c r="C38" s="3">
@@ -1585,8 +1602,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <v>134</v>
       </c>
@@ -1604,8 +1621,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <v>130</v>
       </c>
@@ -1623,8 +1640,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <v>120</v>
       </c>
@@ -1642,8 +1659,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <v>88</v>
       </c>
@@ -1661,10 +1678,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="17">
         <v>10</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="14">
         <v>44132</v>
       </c>
       <c r="C43" s="3">
@@ -1684,8 +1701,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="3">
         <v>125</v>
       </c>
@@ -1703,8 +1720,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="3">
         <v>146</v>
       </c>
@@ -1722,8 +1739,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="3">
         <v>167</v>
       </c>
@@ -1741,8 +1758,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="3">
         <v>178</v>
       </c>
@@ -1760,8 +1777,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="3">
         <v>128</v>
       </c>
@@ -1779,10 +1796,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="17">
         <v>11</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="14">
         <v>44140</v>
       </c>
       <c r="C49" s="3">
@@ -1802,8 +1819,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="3">
         <v>155</v>
       </c>
@@ -1821,8 +1838,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="3">
         <v>139</v>
       </c>
@@ -1840,8 +1857,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="3">
         <v>186</v>
       </c>
@@ -1859,8 +1876,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="3">
         <v>161</v>
       </c>
@@ -1878,8 +1895,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="3">
         <v>137</v>
       </c>
@@ -1897,10 +1914,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="17">
         <v>12</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>44143</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1920,8 +1937,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="3" t="s">
         <v>4</v>
       </c>
@@ -1939,8 +1956,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1958,8 +1975,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
@@ -1977,8 +1994,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
@@ -1996,10 +2013,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="A60" s="17">
         <v>13</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="14">
         <v>44147</v>
       </c>
       <c r="C60" s="3">
@@ -2019,8 +2036,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="3">
         <v>120</v>
       </c>
@@ -2038,8 +2055,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="3">
         <v>138</v>
       </c>
@@ -2057,8 +2074,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="3">
         <v>146</v>
       </c>
@@ -2076,8 +2093,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="3">
         <v>106</v>
       </c>
@@ -2095,10 +2112,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
+      <c r="A65" s="17">
         <v>14</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="14">
         <v>44154</v>
       </c>
       <c r="C65" s="3">
@@ -2118,8 +2135,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="3">
         <v>137</v>
       </c>
@@ -2137,8 +2154,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="3">
         <v>148</v>
       </c>
@@ -2156,8 +2173,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="3">
         <v>152</v>
       </c>
@@ -2175,8 +2192,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="3">
         <v>152</v>
       </c>
@@ -2194,10 +2211,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+      <c r="A70" s="17">
         <v>15</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="14">
         <v>44154</v>
       </c>
       <c r="C70" s="3">
@@ -2217,8 +2234,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="3">
         <v>138</v>
       </c>
@@ -2236,8 +2253,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="3">
         <v>124</v>
       </c>
@@ -2255,8 +2272,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="3">
         <v>124</v>
       </c>
@@ -2274,8 +2291,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="3">
         <v>142</v>
       </c>
@@ -2293,10 +2310,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
+      <c r="A75" s="17">
         <v>16</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="14">
         <v>44167</v>
       </c>
       <c r="C75" s="3">
@@ -2316,8 +2333,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="3">
         <v>117</v>
       </c>
@@ -2335,8 +2352,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="3">
         <v>140</v>
       </c>
@@ -2354,8 +2371,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="3">
         <v>147</v>
       </c>
@@ -2373,8 +2390,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="3">
         <v>132</v>
       </c>
@@ -2392,8 +2409,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="3">
         <v>146</v>
       </c>
@@ -2411,10 +2428,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="12">
+      <c r="A81" s="17">
         <v>17</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="14">
         <v>44168</v>
       </c>
       <c r="C81" s="3">
@@ -2434,8 +2451,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="3">
         <v>119</v>
       </c>
@@ -2453,8 +2470,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="3">
         <v>170</v>
       </c>
@@ -2472,8 +2489,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="3">
         <v>139</v>
       </c>
@@ -2491,8 +2508,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="3">
         <v>136</v>
       </c>
@@ -2510,10 +2527,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12">
+      <c r="A86" s="17">
         <v>18</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="14">
         <v>44175</v>
       </c>
       <c r="C86" s="3">
@@ -2533,8 +2550,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="13"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="3">
         <v>109</v>
       </c>
@@ -2552,8 +2569,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="13"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="3">
         <v>125</v>
       </c>
@@ -2571,8 +2588,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="3">
         <v>109</v>
       </c>
@@ -2590,8 +2607,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="3">
         <v>142</v>
       </c>
@@ -2612,7 +2629,7 @@
       <c r="A91" s="20">
         <v>19</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="14">
         <v>44180</v>
       </c>
       <c r="C91" s="3">
@@ -2633,7 +2650,7 @@
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="13"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="3">
         <v>102</v>
       </c>
@@ -2652,7 +2669,7 @@
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="13"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="3">
         <v>194</v>
       </c>
@@ -2671,7 +2688,7 @@
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="13"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="3">
         <v>108</v>
       </c>
@@ -2690,7 +2707,7 @@
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="13"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="3">
         <v>111</v>
       </c>
@@ -2709,7 +2726,7 @@
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="13"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="3">
         <v>105</v>
       </c>
@@ -2727,10 +2744,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12">
+      <c r="A97" s="17">
         <v>20</v>
       </c>
-      <c r="B97" s="14">
+      <c r="B97" s="18">
         <v>44189</v>
       </c>
       <c r="C97" s="3">
@@ -2750,8 +2767,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="15"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="3">
         <v>111</v>
       </c>
@@ -2769,8 +2786,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="15"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="3">
         <v>100</v>
       </c>
@@ -2788,10 +2805,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="12">
+      <c r="A100" s="17">
         <v>21</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="14">
         <v>44195</v>
       </c>
       <c r="C100" s="3">
@@ -2811,8 +2828,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="13"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="3">
         <v>132</v>
       </c>
@@ -2830,8 +2847,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="13"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="3">
         <v>99</v>
       </c>
@@ -2849,8 +2866,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="13"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="3">
         <v>95</v>
       </c>
@@ -2868,8 +2885,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="13"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="3">
         <v>107</v>
       </c>
@@ -2887,10 +2904,10 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="12">
+      <c r="A105" s="17">
         <v>22</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="14">
         <v>44196</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -2910,8 +2927,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="13"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="3" t="s">
         <v>4</v>
       </c>
@@ -2929,8 +2946,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="13"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="3" t="s">
         <v>4</v>
       </c>
@@ -2948,8 +2965,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="13"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="3" t="s">
         <v>4</v>
       </c>
@@ -2967,8 +2984,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="13"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="3" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3003,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="3" t="s">
         <v>4</v>
       </c>
@@ -3005,10 +3022,10 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12">
+      <c r="A111" s="17">
         <v>23</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="14">
         <v>44202</v>
       </c>
       <c r="C111" s="3">
@@ -3028,8 +3045,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="3">
         <v>143</v>
       </c>
@@ -3047,8 +3064,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="3">
         <v>111</v>
       </c>
@@ -3066,8 +3083,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="13"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="3">
         <v>104</v>
       </c>
@@ -3085,8 +3102,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="13"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="3">
         <v>127</v>
       </c>
@@ -3104,10 +3121,10 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12">
+      <c r="A116" s="17">
         <v>24</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="14">
         <v>44206</v>
       </c>
       <c r="C116" s="3">
@@ -3127,8 +3144,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="13"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="3">
         <v>130</v>
       </c>
@@ -3146,8 +3163,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="13"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="3">
         <v>145</v>
       </c>
@@ -3165,8 +3182,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="13"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="3">
         <v>140</v>
       </c>
@@ -3184,8 +3201,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="13"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="3">
         <v>96</v>
       </c>
@@ -3203,8 +3220,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="13"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="3">
         <v>145</v>
       </c>
@@ -3222,8 +3239,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="13"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="3">
         <v>103</v>
       </c>
@@ -3241,10 +3258,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="12">
+      <c r="A123" s="17">
         <v>25</v>
       </c>
-      <c r="B123" s="13">
+      <c r="B123" s="14">
         <v>44209</v>
       </c>
       <c r="C123" s="3">
@@ -3264,8 +3281,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="13"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="3">
         <v>124</v>
       </c>
@@ -3283,8 +3300,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="13"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="3">
         <v>121</v>
       </c>
@@ -3302,8 +3319,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="13"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="3">
         <v>95</v>
       </c>
@@ -3321,8 +3338,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="13"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="3">
         <v>113</v>
       </c>
@@ -3340,10 +3357,10 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="12">
+      <c r="A128" s="17">
         <v>26</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128" s="14">
         <v>44223</v>
       </c>
       <c r="C128" s="3">
@@ -3363,8 +3380,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="13"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="3">
         <v>124</v>
       </c>
@@ -3382,8 +3399,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="13"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="3">
         <v>142</v>
       </c>
@@ -3401,8 +3418,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-      <c r="B131" s="13"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="3">
         <v>142</v>
       </c>
@@ -3420,8 +3437,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="13"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="3">
         <v>102</v>
       </c>
@@ -3439,10 +3456,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="12">
+      <c r="A133" s="17">
         <v>27</v>
       </c>
-      <c r="B133" s="13">
+      <c r="B133" s="14">
         <v>44230</v>
       </c>
       <c r="C133" s="3">
@@ -3462,8 +3479,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="13"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="3">
         <v>132</v>
       </c>
@@ -3481,8 +3498,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="13"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="3">
         <v>110</v>
       </c>
@@ -3500,8 +3517,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="13"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="3">
         <v>118</v>
       </c>
@@ -3519,8 +3536,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="13"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="3">
         <v>141</v>
       </c>
@@ -3538,10 +3555,10 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="14">
         <v>44246</v>
       </c>
       <c r="C138" s="3">
@@ -3561,8 +3578,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="21"/>
-      <c r="B139" s="13"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="3">
         <v>125</v>
       </c>
@@ -3580,10 +3597,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="13">
+      <c r="B140" s="14">
         <v>44246</v>
       </c>
       <c r="C140" s="3">
@@ -3603,8 +3620,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="21"/>
-      <c r="B141" s="13"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="3">
         <v>134</v>
       </c>
@@ -3622,8 +3639,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="21"/>
-      <c r="B142" s="13"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="3">
         <v>136</v>
       </c>
@@ -3641,8 +3658,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="21"/>
-      <c r="B143" s="13"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="3">
         <v>129</v>
       </c>
@@ -3660,8 +3677,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="21"/>
-      <c r="B144" s="13"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="3">
         <v>145</v>
       </c>
@@ -3679,10 +3696,10 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="12">
+      <c r="A145" s="17">
         <v>29</v>
       </c>
-      <c r="B145" s="13">
+      <c r="B145" s="14">
         <v>44260</v>
       </c>
       <c r="C145" s="3">
@@ -3702,8 +3719,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="13"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="3">
         <v>157</v>
       </c>
@@ -3721,8 +3738,8 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="13"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="3">
         <v>155</v>
       </c>
@@ -3740,8 +3757,8 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="13"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="3">
         <v>138</v>
       </c>
@@ -3759,8 +3776,8 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="13"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="14"/>
       <c r="C149" s="3">
         <v>134</v>
       </c>
@@ -3778,8 +3795,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="13"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="3">
         <v>85</v>
       </c>
@@ -3797,10 +3814,10 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12">
+      <c r="A151" s="17">
         <v>30</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="14">
         <v>44267</v>
       </c>
       <c r="C151" s="3">
@@ -3820,8 +3837,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="13"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="3">
         <v>108</v>
       </c>
@@ -3839,8 +3856,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="13"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="3">
         <v>129</v>
       </c>
@@ -3858,8 +3875,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="13"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="3">
         <v>93</v>
       </c>
@@ -3877,8 +3894,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="13"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="3">
         <v>104</v>
       </c>
@@ -3896,8 +3913,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-      <c r="B156" s="13"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="3">
         <v>110</v>
       </c>
@@ -3915,10 +3932,10 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B157" s="13">
+      <c r="B157" s="14">
         <v>44272</v>
       </c>
       <c r="C157" s="3">
@@ -3938,8 +3955,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="21"/>
-      <c r="B158" s="13"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="3">
         <v>110</v>
       </c>
@@ -3957,8 +3974,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="21"/>
-      <c r="B159" s="13"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="3">
         <v>136</v>
       </c>
@@ -3976,8 +3993,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="21"/>
-      <c r="B160" s="13"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="3">
         <v>105</v>
       </c>
@@ -3995,8 +4012,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="21"/>
-      <c r="B161" s="13"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="3">
         <v>126</v>
       </c>
@@ -4014,10 +4031,10 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="21" t="s">
+      <c r="A162" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="13">
+      <c r="B162" s="14">
         <v>44278</v>
       </c>
       <c r="C162" s="3">
@@ -4037,8 +4054,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="21"/>
-      <c r="B163" s="13"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="3">
         <v>131</v>
       </c>
@@ -4056,8 +4073,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="21"/>
-      <c r="B164" s="13"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="3">
         <v>135</v>
       </c>
@@ -4075,8 +4092,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="21"/>
-      <c r="B165" s="13"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="3">
         <v>122</v>
       </c>
@@ -4094,8 +4111,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="21"/>
-      <c r="B166" s="13"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
       <c r="C166" s="3">
         <v>114</v>
       </c>
@@ -4113,10 +4130,10 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="21" t="s">
+      <c r="A167" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="13">
+      <c r="B167" s="14">
         <v>44294</v>
       </c>
       <c r="C167" s="3">
@@ -4136,8 +4153,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="21"/>
-      <c r="B168" s="13"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="3">
         <v>108</v>
       </c>
@@ -4155,8 +4172,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="21"/>
-      <c r="B169" s="13"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="3">
         <v>99</v>
       </c>
@@ -4174,8 +4191,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="21"/>
-      <c r="B170" s="13"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="14"/>
       <c r="C170" s="3">
         <v>105</v>
       </c>
@@ -4193,8 +4210,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="21"/>
-      <c r="B171" s="13"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="3">
         <v>121</v>
       </c>
@@ -4212,10 +4229,10 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="13">
+      <c r="B172" s="14">
         <v>44300</v>
       </c>
       <c r="C172" s="3">
@@ -4235,8 +4252,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="21"/>
-      <c r="B173" s="13"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="3">
         <v>133</v>
       </c>
@@ -4254,8 +4271,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="21"/>
-      <c r="B174" s="13"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="14"/>
       <c r="C174" s="3">
         <v>131</v>
       </c>
@@ -4273,8 +4290,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="21"/>
-      <c r="B175" s="13"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="14"/>
       <c r="C175" s="3">
         <v>96</v>
       </c>
@@ -4292,8 +4309,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="21"/>
-      <c r="B176" s="13"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="3">
         <v>103</v>
       </c>
@@ -4311,10 +4328,10 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="21" t="s">
+      <c r="A177" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B177" s="13">
+      <c r="B177" s="14">
         <v>44307</v>
       </c>
       <c r="C177" s="3">
@@ -4334,8 +4351,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="21"/>
-      <c r="B178" s="13"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="14"/>
       <c r="C178" s="3">
         <v>107</v>
       </c>
@@ -4353,8 +4370,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="21"/>
-      <c r="B179" s="13"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="14"/>
       <c r="C179" s="3">
         <v>120</v>
       </c>
@@ -4372,8 +4389,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="21"/>
-      <c r="B180" s="13"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="14"/>
       <c r="C180" s="3">
         <v>123</v>
       </c>
@@ -4391,8 +4408,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="21"/>
-      <c r="B181" s="13"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="14"/>
       <c r="C181" s="3">
         <v>97</v>
       </c>
@@ -4410,8 +4427,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="21"/>
-      <c r="B182" s="13"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="14"/>
       <c r="C182" s="3">
         <v>134</v>
       </c>
@@ -4429,10 +4446,10 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B183" s="13">
+      <c r="B183" s="14">
         <v>44315</v>
       </c>
       <c r="C183" s="3">
@@ -4452,8 +4469,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="21"/>
-      <c r="B184" s="13"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="14"/>
       <c r="C184" s="3">
         <v>91</v>
       </c>
@@ -4471,8 +4488,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="21"/>
-      <c r="B185" s="13"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="14"/>
       <c r="C185" s="3">
         <v>82</v>
       </c>
@@ -4490,8 +4507,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="21"/>
-      <c r="B186" s="13"/>
+      <c r="A186" s="13"/>
+      <c r="B186" s="14"/>
       <c r="C186" s="3">
         <v>82</v>
       </c>
@@ -4509,8 +4526,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="21"/>
-      <c r="B187" s="13"/>
+      <c r="A187" s="13"/>
+      <c r="B187" s="14"/>
       <c r="C187" s="3">
         <v>114</v>
       </c>
@@ -4528,10 +4545,10 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="21" t="s">
+      <c r="A188" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B188" s="13">
+      <c r="B188" s="14">
         <v>44322</v>
       </c>
       <c r="C188" s="3">
@@ -4551,8 +4568,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="21"/>
-      <c r="B189" s="13"/>
+      <c r="A189" s="13"/>
+      <c r="B189" s="14"/>
       <c r="C189" s="3">
         <v>182</v>
       </c>
@@ -4570,8 +4587,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="21"/>
-      <c r="B190" s="13"/>
+      <c r="A190" s="13"/>
+      <c r="B190" s="14"/>
       <c r="C190" s="3">
         <v>142</v>
       </c>
@@ -4589,8 +4606,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="21"/>
-      <c r="B191" s="13"/>
+      <c r="A191" s="13"/>
+      <c r="B191" s="14"/>
       <c r="C191" s="3">
         <v>158</v>
       </c>
@@ -4608,8 +4625,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="21"/>
-      <c r="B192" s="13"/>
+      <c r="A192" s="13"/>
+      <c r="B192" s="14"/>
       <c r="C192" s="3">
         <v>155</v>
       </c>
@@ -4627,10 +4644,10 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
+      <c r="A193" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B193" s="13">
+      <c r="B193" s="14">
         <v>44426</v>
       </c>
       <c r="C193" s="3">
@@ -4650,8 +4667,8 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="22"/>
-      <c r="B194" s="13"/>
+      <c r="A194" s="16"/>
+      <c r="B194" s="14"/>
       <c r="C194" s="3">
         <v>146</v>
       </c>
@@ -4669,8 +4686,8 @@
       </c>
     </row>
     <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="22"/>
-      <c r="B195" s="13"/>
+      <c r="A195" s="16"/>
+      <c r="B195" s="14"/>
       <c r="C195" s="3">
         <v>123</v>
       </c>
@@ -4688,8 +4705,8 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="22"/>
-      <c r="B196" s="13"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="14"/>
       <c r="C196" s="3">
         <v>111</v>
       </c>
@@ -4707,8 +4724,8 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="22"/>
-      <c r="B197" s="13"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="14"/>
       <c r="C197" s="3">
         <v>97</v>
       </c>
@@ -4726,10 +4743,10 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B198" s="13">
+      <c r="B198" s="14">
         <v>44441</v>
       </c>
       <c r="C198" s="3">
@@ -4749,8 +4766,8 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="21"/>
-      <c r="B199" s="13"/>
+      <c r="A199" s="13"/>
+      <c r="B199" s="14"/>
       <c r="C199" s="3">
         <v>79</v>
       </c>
@@ -4768,8 +4785,8 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="21"/>
-      <c r="B200" s="13"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="14"/>
       <c r="C200" s="3">
         <v>103</v>
       </c>
@@ -4787,8 +4804,8 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="21"/>
-      <c r="B201" s="13"/>
+      <c r="A201" s="13"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="3">
         <v>113</v>
       </c>
@@ -4806,8 +4823,8 @@
       </c>
     </row>
     <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="21"/>
-      <c r="B202" s="13"/>
+      <c r="A202" s="13"/>
+      <c r="B202" s="14"/>
       <c r="C202" s="3">
         <v>111</v>
       </c>
@@ -4825,10 +4842,10 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="23" t="s">
+      <c r="A203" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B203" s="13">
+      <c r="B203" s="14">
         <v>44448</v>
       </c>
       <c r="C203" s="3">
@@ -4848,8 +4865,8 @@
       </c>
     </row>
     <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="21"/>
-      <c r="B204" s="13"/>
+      <c r="A204" s="13"/>
+      <c r="B204" s="14"/>
       <c r="C204" s="3">
         <v>141</v>
       </c>
@@ -4867,8 +4884,8 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="21"/>
-      <c r="B205" s="13"/>
+      <c r="A205" s="13"/>
+      <c r="B205" s="14"/>
       <c r="C205" s="3">
         <v>100</v>
       </c>
@@ -4886,8 +4903,8 @@
       </c>
     </row>
     <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="21"/>
-      <c r="B206" s="13"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="14"/>
       <c r="C206" s="3">
         <v>129</v>
       </c>
@@ -4905,8 +4922,8 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="21"/>
-      <c r="B207" s="13"/>
+      <c r="A207" s="13"/>
+      <c r="B207" s="14"/>
       <c r="C207" s="3">
         <v>135</v>
       </c>
@@ -4924,8 +4941,8 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="21"/>
-      <c r="B208" s="13"/>
+      <c r="A208" s="13"/>
+      <c r="B208" s="14"/>
       <c r="C208" s="3">
         <v>136</v>
       </c>
@@ -4943,10 +4960,10 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="23" t="s">
+      <c r="A209" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B209" s="13">
+      <c r="B209" s="14">
         <v>44468</v>
       </c>
       <c r="C209" s="3">
@@ -4966,8 +4983,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="21"/>
-      <c r="B210" s="13"/>
+      <c r="A210" s="13"/>
+      <c r="B210" s="14"/>
       <c r="C210" s="3">
         <v>87</v>
       </c>
@@ -4985,8 +5002,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="21"/>
-      <c r="B211" s="13"/>
+      <c r="A211" s="13"/>
+      <c r="B211" s="14"/>
       <c r="C211" s="3">
         <v>124</v>
       </c>
@@ -5004,8 +5021,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="21"/>
-      <c r="B212" s="13"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="14"/>
       <c r="C212" s="3">
         <v>110</v>
       </c>
@@ -5023,8 +5040,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="21"/>
-      <c r="B213" s="13"/>
+      <c r="A213" s="13"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="3">
         <v>107</v>
       </c>
@@ -5042,10 +5059,10 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B214" s="13">
+      <c r="B214" s="14">
         <v>44477</v>
       </c>
       <c r="C214" s="3">
@@ -5065,8 +5082,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="21"/>
-      <c r="B215" s="13"/>
+      <c r="A215" s="13"/>
+      <c r="B215" s="14"/>
       <c r="C215" s="3">
         <v>110</v>
       </c>
@@ -5084,8 +5101,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="21"/>
-      <c r="B216" s="13"/>
+      <c r="A216" s="13"/>
+      <c r="B216" s="14"/>
       <c r="C216" s="3">
         <v>93</v>
       </c>
@@ -5103,8 +5120,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="21"/>
-      <c r="B217" s="13"/>
+      <c r="A217" s="13"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="3">
         <v>155</v>
       </c>
@@ -5122,8 +5139,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="21"/>
-      <c r="B218" s="13"/>
+      <c r="A218" s="13"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="3">
         <v>123</v>
       </c>
@@ -5141,10 +5158,10 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="23" t="s">
+      <c r="A219" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B219" s="13">
+      <c r="B219" s="14">
         <v>44484</v>
       </c>
       <c r="C219" s="3">
@@ -5164,8 +5181,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="21"/>
-      <c r="B220" s="13"/>
+      <c r="A220" s="13"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="3">
         <v>154</v>
       </c>
@@ -5183,8 +5200,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="21"/>
-      <c r="B221" s="13"/>
+      <c r="A221" s="13"/>
+      <c r="B221" s="14"/>
       <c r="C221" s="3">
         <v>126</v>
       </c>
@@ -5202,8 +5219,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="21"/>
-      <c r="B222" s="13"/>
+      <c r="A222" s="13"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="3">
         <v>100</v>
       </c>
@@ -5221,8 +5238,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="21"/>
-      <c r="B223" s="13"/>
+      <c r="A223" s="13"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="3">
         <v>138</v>
       </c>
@@ -5240,10 +5257,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="23" t="s">
+      <c r="A224" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B224" s="13">
+      <c r="B224" s="14">
         <v>44490</v>
       </c>
       <c r="C224" s="3">
@@ -5263,8 +5280,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="21"/>
-      <c r="B225" s="13"/>
+      <c r="A225" s="13"/>
+      <c r="B225" s="14"/>
       <c r="C225" s="3">
         <v>132</v>
       </c>
@@ -5282,8 +5299,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="21"/>
-      <c r="B226" s="13"/>
+      <c r="A226" s="13"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="3">
         <v>122</v>
       </c>
@@ -5301,8 +5318,8 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="21"/>
-      <c r="B227" s="13"/>
+      <c r="A227" s="13"/>
+      <c r="B227" s="14"/>
       <c r="C227" s="3">
         <v>108</v>
       </c>
@@ -5320,8 +5337,8 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="21"/>
-      <c r="B228" s="13"/>
+      <c r="A228" s="13"/>
+      <c r="B228" s="14"/>
       <c r="C228" s="3">
         <v>141</v>
       </c>
@@ -5339,10 +5356,10 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="23" t="s">
+      <c r="A229" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B229" s="13">
+      <c r="B229" s="14">
         <v>44496</v>
       </c>
       <c r="C229" s="3">
@@ -5362,8 +5379,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="21"/>
-      <c r="B230" s="13"/>
+      <c r="A230" s="13"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="3">
         <v>107</v>
       </c>
@@ -5381,8 +5398,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="21"/>
-      <c r="B231" s="13"/>
+      <c r="A231" s="13"/>
+      <c r="B231" s="14"/>
       <c r="C231" s="3">
         <v>129</v>
       </c>
@@ -5400,8 +5417,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="21"/>
-      <c r="B232" s="13"/>
+      <c r="A232" s="13"/>
+      <c r="B232" s="14"/>
       <c r="C232" s="3">
         <v>135</v>
       </c>
@@ -5419,8 +5436,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="21"/>
-      <c r="B233" s="13"/>
+      <c r="A233" s="13"/>
+      <c r="B233" s="14"/>
       <c r="C233" s="3">
         <v>127</v>
       </c>
@@ -5438,10 +5455,10 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="23" t="s">
+      <c r="A234" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B234" s="13">
+      <c r="B234" s="14">
         <v>44505</v>
       </c>
       <c r="C234" s="3">
@@ -5461,8 +5478,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="21"/>
-      <c r="B235" s="13"/>
+      <c r="A235" s="13"/>
+      <c r="B235" s="14"/>
       <c r="C235" s="3">
         <v>137</v>
       </c>
@@ -5480,8 +5497,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="21"/>
-      <c r="B236" s="13"/>
+      <c r="A236" s="13"/>
+      <c r="B236" s="14"/>
       <c r="C236" s="3">
         <v>102</v>
       </c>
@@ -5499,8 +5516,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="21"/>
-      <c r="B237" s="13"/>
+      <c r="A237" s="13"/>
+      <c r="B237" s="14"/>
       <c r="C237" s="3">
         <v>111</v>
       </c>
@@ -5518,8 +5535,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="21"/>
-      <c r="B238" s="13"/>
+      <c r="A238" s="13"/>
+      <c r="B238" s="14"/>
       <c r="C238" s="3">
         <v>130</v>
       </c>
@@ -5537,10 +5554,10 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="23" t="s">
+      <c r="A239" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B239" s="13">
+      <c r="B239" s="14">
         <v>44511</v>
       </c>
       <c r="C239" s="3">
@@ -5560,8 +5577,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="21"/>
-      <c r="B240" s="13"/>
+      <c r="A240" s="13"/>
+      <c r="B240" s="14"/>
       <c r="C240" s="3">
         <v>135</v>
       </c>
@@ -5579,8 +5596,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="21"/>
-      <c r="B241" s="13"/>
+      <c r="A241" s="13"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="3">
         <v>123</v>
       </c>
@@ -5598,8 +5615,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A242" s="21"/>
-      <c r="B242" s="13"/>
+      <c r="A242" s="13"/>
+      <c r="B242" s="14"/>
       <c r="C242" s="3">
         <v>131</v>
       </c>
@@ -5617,8 +5634,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="21"/>
-      <c r="B243" s="13"/>
+      <c r="A243" s="13"/>
+      <c r="B243" s="14"/>
       <c r="C243" s="3">
         <v>110</v>
       </c>
@@ -5636,10 +5653,10 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="23" t="s">
+      <c r="A244" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B244" s="13">
+      <c r="B244" s="14">
         <v>44533</v>
       </c>
       <c r="C244" s="3">
@@ -5659,8 +5676,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="21"/>
-      <c r="B245" s="13"/>
+      <c r="A245" s="13"/>
+      <c r="B245" s="14"/>
       <c r="C245" s="3">
         <v>169</v>
       </c>
@@ -5678,8 +5695,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="21"/>
-      <c r="B246" s="13"/>
+      <c r="A246" s="13"/>
+      <c r="B246" s="14"/>
       <c r="C246" s="3">
         <v>98</v>
       </c>
@@ -5697,8 +5714,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="21"/>
-      <c r="B247" s="13"/>
+      <c r="A247" s="13"/>
+      <c r="B247" s="14"/>
       <c r="C247" s="3">
         <v>132</v>
       </c>
@@ -5716,8 +5733,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A248" s="21"/>
-      <c r="B248" s="13"/>
+      <c r="A248" s="13"/>
+      <c r="B248" s="14"/>
       <c r="C248" s="3">
         <v>133</v>
       </c>
@@ -5735,8 +5752,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="21"/>
-      <c r="B249" s="13"/>
+      <c r="A249" s="13"/>
+      <c r="B249" s="14"/>
       <c r="C249" s="3">
         <v>90</v>
       </c>
@@ -5754,10 +5771,10 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A250" s="23" t="s">
+      <c r="A250" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B250" s="13">
+      <c r="B250" s="14">
         <v>44540</v>
       </c>
       <c r="C250" s="3">
@@ -5777,8 +5794,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="21"/>
-      <c r="B251" s="13"/>
+      <c r="A251" s="13"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="3">
         <v>121</v>
       </c>
@@ -5796,8 +5813,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="21"/>
-      <c r="B252" s="13"/>
+      <c r="A252" s="13"/>
+      <c r="B252" s="14"/>
       <c r="C252" s="3">
         <v>109</v>
       </c>
@@ -5815,8 +5832,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="21"/>
-      <c r="B253" s="13"/>
+      <c r="A253" s="13"/>
+      <c r="B253" s="14"/>
       <c r="C253" s="3">
         <v>127</v>
       </c>
@@ -5834,8 +5851,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="21"/>
-      <c r="B254" s="13"/>
+      <c r="A254" s="13"/>
+      <c r="B254" s="14"/>
       <c r="C254" s="3">
         <v>118</v>
       </c>
@@ -5853,10 +5870,10 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="23" t="s">
+      <c r="A255" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B255" s="13">
+      <c r="B255" s="14">
         <v>44554</v>
       </c>
       <c r="C255" s="3">
@@ -5876,8 +5893,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A256" s="21"/>
-      <c r="B256" s="13"/>
+      <c r="A256" s="13"/>
+      <c r="B256" s="14"/>
       <c r="C256" s="3">
         <v>96</v>
       </c>
@@ -5895,8 +5912,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="21"/>
-      <c r="B257" s="13"/>
+      <c r="A257" s="13"/>
+      <c r="B257" s="14"/>
       <c r="C257" s="3">
         <v>106</v>
       </c>
@@ -5914,8 +5931,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A258" s="21"/>
-      <c r="B258" s="13"/>
+      <c r="A258" s="13"/>
+      <c r="B258" s="14"/>
       <c r="C258" s="3">
         <v>93</v>
       </c>
@@ -5933,8 +5950,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A259" s="21"/>
-      <c r="B259" s="13"/>
+      <c r="A259" s="13"/>
+      <c r="B259" s="14"/>
       <c r="C259" s="3">
         <v>139</v>
       </c>
@@ -5952,8 +5969,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="21"/>
-      <c r="B260" s="13"/>
+      <c r="A260" s="13"/>
+      <c r="B260" s="14"/>
       <c r="C260" s="3">
         <v>126</v>
       </c>
@@ -5971,10 +5988,10 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="23" t="s">
+      <c r="A261" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B261" s="13">
+      <c r="B261" s="14">
         <v>44568</v>
       </c>
       <c r="C261" s="3">
@@ -5994,8 +6011,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="21"/>
-      <c r="B262" s="13"/>
+      <c r="A262" s="13"/>
+      <c r="B262" s="14"/>
       <c r="C262" s="3">
         <v>112</v>
       </c>
@@ -6013,8 +6030,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="21"/>
-      <c r="B263" s="13"/>
+      <c r="A263" s="13"/>
+      <c r="B263" s="14"/>
       <c r="C263" s="3">
         <v>107</v>
       </c>
@@ -6032,8 +6049,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="21"/>
-      <c r="B264" s="13"/>
+      <c r="A264" s="13"/>
+      <c r="B264" s="14"/>
       <c r="C264" s="3">
         <v>142</v>
       </c>
@@ -6051,8 +6068,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="21"/>
-      <c r="B265" s="13"/>
+      <c r="A265" s="13"/>
+      <c r="B265" s="14"/>
       <c r="C265" s="3">
         <v>126</v>
       </c>
@@ -6070,10 +6087,10 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="23" t="s">
+      <c r="A266" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B266" s="13">
+      <c r="B266" s="14">
         <v>44582</v>
       </c>
       <c r="C266" s="3">
@@ -6093,8 +6110,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A267" s="21"/>
-      <c r="B267" s="13"/>
+      <c r="A267" s="13"/>
+      <c r="B267" s="14"/>
       <c r="C267" s="3">
         <v>128</v>
       </c>
@@ -6112,8 +6129,8 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="21"/>
-      <c r="B268" s="13"/>
+      <c r="A268" s="13"/>
+      <c r="B268" s="14"/>
       <c r="C268" s="3">
         <v>146</v>
       </c>
@@ -6131,8 +6148,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="21"/>
-      <c r="B269" s="13"/>
+      <c r="A269" s="13"/>
+      <c r="B269" s="14"/>
       <c r="C269" s="3">
         <v>131</v>
       </c>
@@ -6150,8 +6167,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="21"/>
-      <c r="B270" s="13"/>
+      <c r="A270" s="13"/>
+      <c r="B270" s="14"/>
       <c r="C270" s="3">
         <v>132</v>
       </c>
@@ -6169,10 +6186,10 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="23" t="s">
+      <c r="A271" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B271" s="13">
+      <c r="B271" s="14">
         <v>44589</v>
       </c>
       <c r="C271" s="3">
@@ -6192,8 +6209,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="21"/>
-      <c r="B272" s="13"/>
+      <c r="A272" s="13"/>
+      <c r="B272" s="14"/>
       <c r="C272" s="3">
         <v>125</v>
       </c>
@@ -6211,8 +6228,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A273" s="21"/>
-      <c r="B273" s="13"/>
+      <c r="A273" s="13"/>
+      <c r="B273" s="14"/>
       <c r="C273" s="3">
         <v>100</v>
       </c>
@@ -6230,8 +6247,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="21"/>
-      <c r="B274" s="13"/>
+      <c r="A274" s="13"/>
+      <c r="B274" s="14"/>
       <c r="C274" s="3">
         <v>124</v>
       </c>
@@ -6249,8 +6266,8 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A275" s="21"/>
-      <c r="B275" s="13"/>
+      <c r="A275" s="13"/>
+      <c r="B275" s="14"/>
       <c r="C275" s="3">
         <v>134</v>
       </c>
@@ -6268,10 +6285,10 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A276" s="23" t="s">
+      <c r="A276" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B276" s="13">
+      <c r="B276" s="14">
         <v>44596</v>
       </c>
       <c r="C276" s="3">
@@ -6291,8 +6308,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A277" s="21"/>
-      <c r="B277" s="13"/>
+      <c r="A277" s="13"/>
+      <c r="B277" s="14"/>
       <c r="C277" s="3">
         <v>100</v>
       </c>
@@ -6310,8 +6327,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A278" s="21"/>
-      <c r="B278" s="13"/>
+      <c r="A278" s="13"/>
+      <c r="B278" s="14"/>
       <c r="C278" s="3">
         <v>116</v>
       </c>
@@ -6329,8 +6346,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A279" s="21"/>
-      <c r="B279" s="13"/>
+      <c r="A279" s="13"/>
+      <c r="B279" s="14"/>
       <c r="C279" s="3">
         <v>128</v>
       </c>
@@ -6348,10 +6365,10 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A280" s="23" t="s">
+      <c r="A280" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B280" s="13">
+      <c r="B280" s="14">
         <v>44624</v>
       </c>
       <c r="C280" s="3">
@@ -6371,8 +6388,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="21"/>
-      <c r="B281" s="13"/>
+      <c r="A281" s="13"/>
+      <c r="B281" s="14"/>
       <c r="C281" s="3">
         <v>106</v>
       </c>
@@ -6390,8 +6407,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A282" s="21"/>
-      <c r="B282" s="13"/>
+      <c r="A282" s="13"/>
+      <c r="B282" s="14"/>
       <c r="C282" s="3">
         <v>123</v>
       </c>
@@ -6409,8 +6426,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A283" s="21"/>
-      <c r="B283" s="13"/>
+      <c r="A283" s="13"/>
+      <c r="B283" s="14"/>
       <c r="C283" s="3">
         <v>130</v>
       </c>
@@ -6428,10 +6445,10 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A284" s="24" t="s">
+      <c r="A284" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B284" s="13">
+      <c r="B284" s="14">
         <v>44633</v>
       </c>
       <c r="C284" s="3">
@@ -6451,8 +6468,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A285" s="22"/>
-      <c r="B285" s="13"/>
+      <c r="A285" s="16"/>
+      <c r="B285" s="14"/>
       <c r="C285" s="3">
         <v>110</v>
       </c>
@@ -6470,8 +6487,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A286" s="22"/>
-      <c r="B286" s="13"/>
+      <c r="A286" s="16"/>
+      <c r="B286" s="14"/>
       <c r="C286" s="3">
         <v>125</v>
       </c>
@@ -6489,8 +6506,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="22"/>
-      <c r="B287" s="13"/>
+      <c r="A287" s="16"/>
+      <c r="B287" s="14"/>
       <c r="C287" s="3">
         <v>139</v>
       </c>
@@ -6508,8 +6525,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A288" s="22"/>
-      <c r="B288" s="13"/>
+      <c r="A288" s="16"/>
+      <c r="B288" s="14"/>
       <c r="C288" s="3">
         <v>130</v>
       </c>
@@ -6527,8 +6544,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A289" s="22"/>
-      <c r="B289" s="13"/>
+      <c r="A289" s="16"/>
+      <c r="B289" s="14"/>
       <c r="C289" s="3">
         <v>103</v>
       </c>
@@ -6546,8 +6563,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A290" s="22"/>
-      <c r="B290" s="13"/>
+      <c r="A290" s="16"/>
+      <c r="B290" s="14"/>
       <c r="C290" s="3">
         <v>115</v>
       </c>
@@ -6565,10 +6582,10 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A291" s="23" t="s">
+      <c r="A291" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B291" s="13">
+      <c r="B291" s="14">
         <v>44652</v>
       </c>
       <c r="C291" s="3">
@@ -6588,8 +6605,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A292" s="21"/>
-      <c r="B292" s="13"/>
+      <c r="A292" s="13"/>
+      <c r="B292" s="14"/>
       <c r="C292" s="3">
         <v>87</v>
       </c>
@@ -6607,8 +6624,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A293" s="21"/>
-      <c r="B293" s="13"/>
+      <c r="A293" s="13"/>
+      <c r="B293" s="14"/>
       <c r="C293" s="3">
         <v>90</v>
       </c>
@@ -6626,8 +6643,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A294" s="21"/>
-      <c r="B294" s="13"/>
+      <c r="A294" s="13"/>
+      <c r="B294" s="14"/>
       <c r="C294" s="3">
         <v>146</v>
       </c>
@@ -6645,8 +6662,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A295" s="21"/>
-      <c r="B295" s="13"/>
+      <c r="A295" s="13"/>
+      <c r="B295" s="14"/>
       <c r="C295" s="3">
         <v>157</v>
       </c>
@@ -6664,8 +6681,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A296" s="21"/>
-      <c r="B296" s="13"/>
+      <c r="A296" s="13"/>
+      <c r="B296" s="14"/>
       <c r="C296" s="3">
         <v>120</v>
       </c>
@@ -6683,8 +6700,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A297" s="21"/>
-      <c r="B297" s="13"/>
+      <c r="A297" s="13"/>
+      <c r="B297" s="14"/>
       <c r="C297" s="3">
         <v>110</v>
       </c>
@@ -6702,10 +6719,10 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A298" s="23" t="s">
+      <c r="A298" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B298" s="13">
+      <c r="B298" s="14">
         <v>44661</v>
       </c>
       <c r="C298" s="3">
@@ -6725,8 +6742,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A299" s="21"/>
-      <c r="B299" s="13"/>
+      <c r="A299" s="13"/>
+      <c r="B299" s="14"/>
       <c r="C299" s="3">
         <v>101</v>
       </c>
@@ -6744,8 +6761,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A300" s="21"/>
-      <c r="B300" s="13"/>
+      <c r="A300" s="13"/>
+      <c r="B300" s="14"/>
       <c r="C300" s="3">
         <v>106</v>
       </c>
@@ -6763,8 +6780,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A301" s="21"/>
-      <c r="B301" s="13"/>
+      <c r="A301" s="13"/>
+      <c r="B301" s="14"/>
       <c r="C301" s="3">
         <v>111</v>
       </c>
@@ -6782,8 +6799,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A302" s="21"/>
-      <c r="B302" s="13"/>
+      <c r="A302" s="13"/>
+      <c r="B302" s="14"/>
       <c r="C302" s="3">
         <v>94</v>
       </c>
@@ -6801,10 +6818,10 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A303" s="23" t="s">
+      <c r="A303" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B303" s="13">
+      <c r="B303" s="14">
         <v>44667</v>
       </c>
       <c r="C303" s="3">
@@ -6824,8 +6841,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A304" s="21"/>
-      <c r="B304" s="13"/>
+      <c r="A304" s="13"/>
+      <c r="B304" s="14"/>
       <c r="C304" s="3">
         <v>115</v>
       </c>
@@ -6843,8 +6860,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A305" s="21"/>
-      <c r="B305" s="13"/>
+      <c r="A305" s="13"/>
+      <c r="B305" s="14"/>
       <c r="C305" s="3">
         <v>100</v>
       </c>
@@ -6862,8 +6879,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A306" s="21"/>
-      <c r="B306" s="13"/>
+      <c r="A306" s="13"/>
+      <c r="B306" s="14"/>
       <c r="C306" s="3">
         <v>121</v>
       </c>
@@ -6881,8 +6898,8 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A307" s="21"/>
-      <c r="B307" s="13"/>
+      <c r="A307" s="13"/>
+      <c r="B307" s="14"/>
       <c r="C307" s="3">
         <v>83</v>
       </c>
@@ -6900,8 +6917,8 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A308" s="21"/>
-      <c r="B308" s="13"/>
+      <c r="A308" s="13"/>
+      <c r="B308" s="14"/>
       <c r="C308" s="3">
         <v>102</v>
       </c>
@@ -6919,10 +6936,10 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A309" s="23" t="s">
+      <c r="A309" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B309" s="13">
+      <c r="B309" s="14">
         <v>44673</v>
       </c>
       <c r="C309" s="3">
@@ -6942,8 +6959,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A310" s="21"/>
-      <c r="B310" s="13"/>
+      <c r="A310" s="13"/>
+      <c r="B310" s="14"/>
       <c r="C310" s="3">
         <v>100</v>
       </c>
@@ -6961,8 +6978,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A311" s="21"/>
-      <c r="B311" s="13"/>
+      <c r="A311" s="13"/>
+      <c r="B311" s="14"/>
       <c r="C311" s="3">
         <v>84</v>
       </c>
@@ -6980,8 +6997,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A312" s="21"/>
-      <c r="B312" s="13"/>
+      <c r="A312" s="13"/>
+      <c r="B312" s="14"/>
       <c r="C312" s="3">
         <v>103</v>
       </c>
@@ -6999,8 +7016,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A313" s="21"/>
-      <c r="B313" s="13"/>
+      <c r="A313" s="13"/>
+      <c r="B313" s="14"/>
       <c r="C313" s="3">
         <v>136</v>
       </c>
@@ -7018,8 +7035,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A314" s="21"/>
-      <c r="B314" s="13"/>
+      <c r="A314" s="13"/>
+      <c r="B314" s="14"/>
       <c r="C314" s="3">
         <v>125</v>
       </c>
@@ -7037,8 +7054,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A315" s="21"/>
-      <c r="B315" s="13"/>
+      <c r="A315" s="13"/>
+      <c r="B315" s="14"/>
       <c r="C315" s="3">
         <v>98</v>
       </c>
@@ -7056,10 +7073,10 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A316" s="23" t="s">
+      <c r="A316" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B316" s="13">
+      <c r="B316" s="14">
         <v>44745</v>
       </c>
       <c r="C316" s="3">
@@ -7079,8 +7096,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A317" s="21"/>
-      <c r="B317" s="13"/>
+      <c r="A317" s="13"/>
+      <c r="B317" s="14"/>
       <c r="C317" s="3">
         <v>105</v>
       </c>
@@ -7098,8 +7115,8 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A318" s="21"/>
-      <c r="B318" s="13"/>
+      <c r="A318" s="13"/>
+      <c r="B318" s="14"/>
       <c r="C318" s="3">
         <v>117</v>
       </c>
@@ -7117,8 +7134,8 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A319" s="21"/>
-      <c r="B319" s="13"/>
+      <c r="A319" s="13"/>
+      <c r="B319" s="14"/>
       <c r="C319" s="3">
         <v>117</v>
       </c>
@@ -7136,8 +7153,8 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A320" s="21"/>
-      <c r="B320" s="13"/>
+      <c r="A320" s="13"/>
+      <c r="B320" s="14"/>
       <c r="C320" s="3">
         <v>116</v>
       </c>
@@ -7155,10 +7172,10 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A321" s="23" t="s">
+      <c r="A321" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B321" s="13">
+      <c r="B321" s="14">
         <v>44772</v>
       </c>
       <c r="C321" s="3">
@@ -7178,8 +7195,8 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A322" s="21"/>
-      <c r="B322" s="13"/>
+      <c r="A322" s="13"/>
+      <c r="B322" s="14"/>
       <c r="C322" s="3">
         <v>103</v>
       </c>
@@ -7197,8 +7214,8 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A323" s="21"/>
-      <c r="B323" s="13"/>
+      <c r="A323" s="13"/>
+      <c r="B323" s="14"/>
       <c r="C323" s="3">
         <v>103</v>
       </c>
@@ -7216,8 +7233,8 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A324" s="21"/>
-      <c r="B324" s="13"/>
+      <c r="A324" s="13"/>
+      <c r="B324" s="14"/>
       <c r="C324" s="3">
         <v>103</v>
       </c>
@@ -7235,8 +7252,8 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A325" s="21"/>
-      <c r="B325" s="13"/>
+      <c r="A325" s="13"/>
+      <c r="B325" s="14"/>
       <c r="C325" s="3">
         <v>90</v>
       </c>
@@ -7254,10 +7271,10 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A326" s="23" t="s">
+      <c r="A326" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B326" s="13">
+      <c r="B326" s="14">
         <v>44836</v>
       </c>
       <c r="C326" s="3">
@@ -7277,8 +7294,8 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A327" s="21"/>
-      <c r="B327" s="13"/>
+      <c r="A327" s="13"/>
+      <c r="B327" s="14"/>
       <c r="C327" s="3">
         <v>125</v>
       </c>
@@ -7296,8 +7313,8 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A328" s="21"/>
-      <c r="B328" s="13"/>
+      <c r="A328" s="13"/>
+      <c r="B328" s="14"/>
       <c r="C328" s="3">
         <v>116</v>
       </c>
@@ -7315,8 +7332,8 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A329" s="21"/>
-      <c r="B329" s="13"/>
+      <c r="A329" s="13"/>
+      <c r="B329" s="14"/>
       <c r="C329" s="3">
         <v>98</v>
       </c>
@@ -7334,8 +7351,8 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A330" s="21"/>
-      <c r="B330" s="13"/>
+      <c r="A330" s="13"/>
+      <c r="B330" s="14"/>
       <c r="C330" s="3">
         <v>84</v>
       </c>
@@ -7353,10 +7370,10 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B331" s="13">
+      <c r="B331" s="14">
         <v>44850</v>
       </c>
       <c r="C331" s="3">
@@ -7376,8 +7393,8 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A332" s="21"/>
-      <c r="B332" s="13"/>
+      <c r="A332" s="13"/>
+      <c r="B332" s="14"/>
       <c r="C332" s="3">
         <v>112</v>
       </c>
@@ -7395,8 +7412,8 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A333" s="21"/>
-      <c r="B333" s="13"/>
+      <c r="A333" s="13"/>
+      <c r="B333" s="14"/>
       <c r="C333" s="3">
         <v>109</v>
       </c>
@@ -7414,8 +7431,8 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A334" s="21"/>
-      <c r="B334" s="13"/>
+      <c r="A334" s="13"/>
+      <c r="B334" s="14"/>
       <c r="C334" s="3">
         <v>82</v>
       </c>
@@ -7433,8 +7450,8 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A335" s="21"/>
-      <c r="B335" s="13"/>
+      <c r="A335" s="13"/>
+      <c r="B335" s="14"/>
       <c r="C335" s="3">
         <v>132</v>
       </c>
@@ -7452,10 +7469,10 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B336" s="13">
+      <c r="B336" s="14">
         <v>44891</v>
       </c>
       <c r="C336" s="3">
@@ -7475,8 +7492,8 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A337" s="21"/>
-      <c r="B337" s="13"/>
+      <c r="A337" s="13"/>
+      <c r="B337" s="14"/>
       <c r="C337" s="3">
         <v>98</v>
       </c>
@@ -7494,8 +7511,8 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A338" s="21"/>
-      <c r="B338" s="13"/>
+      <c r="A338" s="13"/>
+      <c r="B338" s="14"/>
       <c r="C338" s="3">
         <v>103</v>
       </c>
@@ -7513,8 +7530,8 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A339" s="21"/>
-      <c r="B339" s="13"/>
+      <c r="A339" s="13"/>
+      <c r="B339" s="14"/>
       <c r="C339" s="3">
         <v>143</v>
       </c>
@@ -7532,8 +7549,8 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A340" s="21"/>
-      <c r="B340" s="13"/>
+      <c r="A340" s="13"/>
+      <c r="B340" s="14"/>
       <c r="C340" s="3">
         <v>114</v>
       </c>
@@ -7551,8 +7568,8 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A341" s="21"/>
-      <c r="B341" s="13"/>
+      <c r="A341" s="13"/>
+      <c r="B341" s="14"/>
       <c r="C341" s="3">
         <v>81</v>
       </c>
@@ -7570,8 +7587,8 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A342" s="21"/>
-      <c r="B342" s="13"/>
+      <c r="A342" s="13"/>
+      <c r="B342" s="14"/>
       <c r="C342" s="3">
         <v>99</v>
       </c>
@@ -7589,8 +7606,8 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A343" s="21"/>
-      <c r="B343" s="13"/>
+      <c r="A343" s="13"/>
+      <c r="B343" s="14"/>
       <c r="C343" s="3">
         <v>125</v>
       </c>
@@ -7607,18 +7624,219 @@
         <v>111</v>
       </c>
     </row>
+    <row r="344" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A344" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B344" s="14">
+        <v>45020</v>
+      </c>
+      <c r="C344" s="3">
+        <v>78</v>
+      </c>
+      <c r="D344" s="3">
+        <v>113</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G344" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A345" s="26"/>
+      <c r="B345" s="14"/>
+      <c r="C345" s="3">
+        <v>108</v>
+      </c>
+      <c r="D345" s="3">
+        <v>122</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G345" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A346" s="26"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="3">
+        <v>94</v>
+      </c>
+      <c r="D346" s="3">
+        <v>136</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G346" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A347" s="26"/>
+      <c r="B347" s="14"/>
+      <c r="C347" s="3">
+        <v>90</v>
+      </c>
+      <c r="D347" s="3">
+        <v>115</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G347" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A348" s="26"/>
+      <c r="B348" s="14"/>
+      <c r="C348" s="3">
+        <v>110</v>
+      </c>
+      <c r="D348" s="3">
+        <v>152</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G348" s="3">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="A336:A343"/>
-    <mergeCell ref="B336:B343"/>
-    <mergeCell ref="A331:A335"/>
-    <mergeCell ref="B331:B335"/>
-    <mergeCell ref="A316:A320"/>
-    <mergeCell ref="B316:B320"/>
-    <mergeCell ref="A321:A325"/>
-    <mergeCell ref="B321:B325"/>
-    <mergeCell ref="A326:A330"/>
-    <mergeCell ref="B326:B330"/>
+  <mergeCells count="134">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A344:A348"/>
+    <mergeCell ref="B344:B348"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="B133:B137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="B203:B208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="B239:B243"/>
+    <mergeCell ref="A244:A249"/>
+    <mergeCell ref="B244:B249"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="A224:A228"/>
+    <mergeCell ref="B224:B228"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="A266:A270"/>
+    <mergeCell ref="B266:B270"/>
+    <mergeCell ref="A271:A275"/>
+    <mergeCell ref="B271:B275"/>
+    <mergeCell ref="A276:A279"/>
+    <mergeCell ref="B276:B279"/>
+    <mergeCell ref="A250:A254"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="B261:B265"/>
     <mergeCell ref="A298:A302"/>
     <mergeCell ref="B298:B302"/>
     <mergeCell ref="A303:A308"/>
@@ -7631,116 +7849,16 @@
     <mergeCell ref="B284:B290"/>
     <mergeCell ref="A291:A297"/>
     <mergeCell ref="B291:B297"/>
-    <mergeCell ref="A266:A270"/>
-    <mergeCell ref="B266:B270"/>
-    <mergeCell ref="A271:A275"/>
-    <mergeCell ref="B271:B275"/>
-    <mergeCell ref="A276:A279"/>
-    <mergeCell ref="B276:B279"/>
-    <mergeCell ref="A250:A254"/>
-    <mergeCell ref="B250:B254"/>
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="B255:B260"/>
-    <mergeCell ref="A261:A265"/>
-    <mergeCell ref="B261:B265"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="A239:A243"/>
-    <mergeCell ref="B239:B243"/>
-    <mergeCell ref="A244:A249"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="B219:B223"/>
-    <mergeCell ref="A224:A228"/>
-    <mergeCell ref="B224:B228"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="B203:B208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="A188:A192"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="B183:B187"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A336:A343"/>
+    <mergeCell ref="B336:B343"/>
+    <mergeCell ref="A331:A335"/>
+    <mergeCell ref="B331:B335"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="B316:B320"/>
+    <mergeCell ref="A321:A325"/>
+    <mergeCell ref="B321:B325"/>
+    <mergeCell ref="A326:A330"/>
+    <mergeCell ref="B326:B330"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
